--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808E34EC-5777-574C-9966-5B6923448940}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C1413E-3D81-864C-A176-FF3C91004904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2100" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17680" yWindow="2660" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="1206">
   <si>
     <t>Record_ID</t>
   </si>
@@ -3640,6 +3640,9 @@
   </si>
   <si>
     <t>proto.107-Myocastor</t>
+  </si>
+  <si>
+    <t>proto.1-Rattus</t>
   </si>
 </sst>
 </file>
@@ -4555,8 +4558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B128" sqref="A1:AF138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4671,7 +4674,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>1205</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC94A9C-258A-BA48-A509-E0BD04B28F22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E39582-1270-9140-BB1B-6C9D0EFBF94A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="2160" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4578,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J71" sqref="A1:AF133"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A75" sqref="A1:AF133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B87DA45-00ED-D044-A2D8-032705A27973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D156109D-F1C0-EF42-810B-5B79DC6B4EC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1460" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3520" yWindow="500" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -3801,9 +3801,6 @@
     <t>proto.1-RatNor</t>
   </si>
   <si>
-    <t>proto.2-MusSpe</t>
-  </si>
-  <si>
     <t>proto.127-Capromys</t>
   </si>
   <si>
@@ -3829,6 +3826,9 @@
   </si>
   <si>
     <t>proto.193-CteSo</t>
+  </si>
+  <si>
+    <t>proto.2-MusSpr</t>
   </si>
 </sst>
 </file>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B89" sqref="A1:AF133"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4969,7 +4969,7 @@
         <v>954</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1258</v>
+        <v>1267</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -7811,7 +7811,7 @@
         <v>1130</v>
       </c>
       <c r="B32" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C32" s="11">
         <v>127</v>
@@ -10163,7 +10163,7 @@
         <v>1159</v>
       </c>
       <c r="B56" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C56" s="11">
         <v>152</v>
@@ -12711,7 +12711,7 @@
         <v>459</v>
       </c>
       <c r="B82" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C82" s="11">
         <v>177</v>
@@ -12809,7 +12809,7 @@
         <v>195</v>
       </c>
       <c r="B83" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C83" s="11">
         <v>178</v>
@@ -15063,7 +15063,7 @@
         <v>467</v>
       </c>
       <c r="B106" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C106" s="11">
         <v>192</v>
@@ -15161,7 +15161,7 @@
         <v>326</v>
       </c>
       <c r="B107" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C107" s="11">
         <v>193</v>
@@ -15259,7 +15259,7 @@
         <v>528</v>
       </c>
       <c r="B108" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C108" s="11">
         <v>194</v>
@@ -15357,7 +15357,7 @@
         <v>303</v>
       </c>
       <c r="B109" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C109" s="11">
         <v>195</v>
@@ -15455,7 +15455,7 @@
         <v>236</v>
       </c>
       <c r="B110" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C110" s="11">
         <v>196</v>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E7DB39-0674-8C4C-978C-2F8A60E138C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F9C40-8612-B64C-9D10-3D3EC52478E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="14140" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="2160" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -1476,9 +1476,6 @@
     <t>PVJA010000900.1</t>
   </si>
   <si>
-    <t>proto.139-Myocastor</t>
-  </si>
-  <si>
     <t>NS[proto.139-Myocastor(+)]-VP[proto.131-Ctenomys(+)]-VP[proto.121-Cavia(+)]-VP[proto.121-Cavia(+)]</t>
   </si>
   <si>
@@ -3829,6 +3826,9 @@
   </si>
   <si>
     <t>proto.2-MusSpr</t>
+  </si>
+  <si>
+    <t>proto.139-MyoCoy</t>
   </si>
 </sst>
 </file>
@@ -4755,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:AF132"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A50" sqref="A1:AF132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4770,16 +4770,16 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1086</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>981</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1087</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -4871,13 +4871,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>52</v>
@@ -4966,19 +4966,19 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F3" s="6">
         <v>2968</v>
@@ -4999,19 +4999,19 @@
         <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>950</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>952</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>953</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>40</v>
@@ -5059,24 +5059,24 @@
         <v>0</v>
       </c>
       <c r="AF3" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F4" s="6">
         <v>4405</v>
@@ -5097,19 +5097,19 @@
         <v>34</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N4" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>661</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>40</v>
@@ -5157,24 +5157,24 @@
         <v>0</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C5" s="10">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F5" s="6">
         <v>3460</v>
@@ -5195,19 +5195,19 @@
         <v>34</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="6" t="s">
+        <v>961</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>962</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>963</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>964</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>40</v>
@@ -5255,24 +5255,24 @@
         <v>0</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C6" s="10">
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F6" s="6">
         <v>222</v>
@@ -5290,22 +5290,22 @@
         <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="N6" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="P6" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>40</v>
@@ -5353,21 +5353,21 @@
         <v>0</v>
       </c>
       <c r="AF6" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C7" s="11">
         <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -5451,12 +5451,12 @@
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
@@ -5465,7 +5465,7 @@
         <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
@@ -5554,16 +5554,16 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B9" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C9" s="11">
         <v>103</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E9" t="s">
         <v>62</v>
@@ -5652,16 +5652,16 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B10" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C10" s="11">
         <v>104</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
@@ -5750,16 +5750,16 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B11" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C11" s="11">
         <v>106</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E11" t="s">
         <v>272</v>
@@ -5795,7 +5795,7 @@
         <v>276</v>
       </c>
       <c r="P11" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="Q11" t="s">
         <v>40</v>
@@ -5843,21 +5843,21 @@
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B12" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C12" s="11">
         <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E12" t="s">
         <v>272</v>
@@ -5946,16 +5946,16 @@
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C13" s="11">
         <v>108</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E13" t="s">
         <v>180</v>
@@ -6044,16 +6044,16 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C14" s="11">
         <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E14" t="s">
         <v>284</v>
@@ -6142,19 +6142,19 @@
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C15" s="11">
         <v>108</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F15">
         <v>4216</v>
@@ -6172,22 +6172,22 @@
         <v>33</v>
       </c>
       <c r="K15" t="s">
+        <v>721</v>
+      </c>
+      <c r="L15" t="s">
         <v>722</v>
-      </c>
-      <c r="L15" t="s">
-        <v>723</v>
       </c>
       <c r="M15" t="s">
         <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O15" t="s">
+        <v>723</v>
+      </c>
+      <c r="P15" t="s">
         <v>724</v>
-      </c>
-      <c r="P15" t="s">
-        <v>725</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
@@ -6235,21 +6235,21 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C16" s="11">
         <v>108</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E16" t="s">
         <v>136</v>
@@ -6285,7 +6285,7 @@
         <v>140</v>
       </c>
       <c r="P16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="Q16" t="s">
         <v>49</v>
@@ -6333,24 +6333,24 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C17" s="11">
         <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F17">
         <v>3819</v>
@@ -6368,22 +6368,22 @@
         <v>33</v>
       </c>
       <c r="K17" t="s">
+        <v>721</v>
+      </c>
+      <c r="L17" t="s">
         <v>722</v>
-      </c>
-      <c r="L17" t="s">
-        <v>723</v>
       </c>
       <c r="M17" t="s">
         <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O17" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P17" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q17" t="s">
         <v>40</v>
@@ -6431,21 +6431,21 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C18" s="11">
         <v>108</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E18" t="s">
         <v>136</v>
@@ -6534,16 +6534,16 @@
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C19" s="11">
         <v>108</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E19" t="s">
         <v>284</v>
@@ -6579,7 +6579,7 @@
         <v>288</v>
       </c>
       <c r="P19" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q19" t="s">
         <v>49</v>
@@ -6627,21 +6627,21 @@
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C20" s="11">
         <v>108</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E20" t="s">
         <v>145</v>
@@ -6730,16 +6730,16 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C21" s="11">
         <v>108</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E21" t="s">
         <v>197</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B22" t="s">
         <v>205</v>
@@ -6837,7 +6837,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E22" t="s">
         <v>188</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B23" t="s">
         <v>205</v>
@@ -6935,7 +6935,7 @@
         <v>120</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E23" t="s">
         <v>166</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B24" t="s">
         <v>205</v>
@@ -7033,7 +7033,7 @@
         <v>120</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E24" t="s">
         <v>160</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B25" t="s">
         <v>330</v>
@@ -7131,7 +7131,7 @@
         <v>122</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E25" t="s">
         <v>166</v>
@@ -7220,7 +7220,7 @@
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B26" t="s">
         <v>330</v>
@@ -7229,7 +7229,7 @@
         <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E26" t="s">
         <v>188</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B27" t="s">
         <v>330</v>
@@ -7327,7 +7327,7 @@
         <v>122</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E27" t="s">
         <v>166</v>
@@ -7411,21 +7411,21 @@
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B28" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C28" s="11">
         <v>125</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -7514,16 +7514,16 @@
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C29" s="11">
         <v>126</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E29" t="s">
         <v>366</v>
@@ -7612,16 +7612,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C30" s="11">
         <v>126</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E30" t="s">
         <v>171</v>
@@ -7657,7 +7657,7 @@
         <v>175</v>
       </c>
       <c r="P30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Q30" t="s">
         <v>40</v>
@@ -7705,21 +7705,21 @@
         <v>0</v>
       </c>
       <c r="AF30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B31" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C31" s="11">
         <v>127</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E31" t="s">
         <v>197</v>
@@ -7755,7 +7755,7 @@
         <v>201</v>
       </c>
       <c r="P31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Q31" t="s">
         <v>40</v>
@@ -7803,12 +7803,12 @@
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B32" t="s">
         <v>380</v>
@@ -7817,7 +7817,7 @@
         <v>128</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E32" t="s">
         <v>197</v>
@@ -7906,7 +7906,7 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B33" t="s">
         <v>384</v>
@@ -7915,7 +7915,7 @@
         <v>129</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E33" t="s">
         <v>180</v>
@@ -7951,7 +7951,7 @@
         <v>184</v>
       </c>
       <c r="P33" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q33" t="s">
         <v>40</v>
@@ -7999,12 +7999,12 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B34" t="s">
         <v>392</v>
@@ -8013,7 +8013,7 @@
         <v>130</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E34" t="s">
         <v>180</v>
@@ -8049,7 +8049,7 @@
         <v>184</v>
       </c>
       <c r="P34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q34" t="s">
         <v>40</v>
@@ -8097,21 +8097,21 @@
         <v>0</v>
       </c>
       <c r="AF34" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C35" s="11">
         <v>131</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E35" t="s">
         <v>354</v>
@@ -8147,7 +8147,7 @@
         <v>358</v>
       </c>
       <c r="P35" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="Q35" t="s">
         <v>40</v>
@@ -8195,21 +8195,21 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C36" s="11">
         <v>131</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E36" t="s">
         <v>197</v>
@@ -8245,7 +8245,7 @@
         <v>201</v>
       </c>
       <c r="P36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q36" t="s">
         <v>49</v>
@@ -8293,21 +8293,21 @@
         <v>0</v>
       </c>
       <c r="AF36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C37" s="11">
         <v>132</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E37" t="s">
         <v>354</v>
@@ -8343,7 +8343,7 @@
         <v>358</v>
       </c>
       <c r="P37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q37" t="s">
         <v>40</v>
@@ -8391,12 +8391,12 @@
         <v>0</v>
       </c>
       <c r="AF37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B38" t="s">
         <v>411</v>
@@ -8405,7 +8405,7 @@
         <v>133</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E38" t="s">
         <v>145</v>
@@ -8441,7 +8441,7 @@
         <v>149</v>
       </c>
       <c r="P38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q38" t="s">
         <v>40</v>
@@ -8489,12 +8489,12 @@
         <v>0</v>
       </c>
       <c r="AF38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B39" t="s">
         <v>414</v>
@@ -8503,7 +8503,7 @@
         <v>134</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E39" t="s">
         <v>145</v>
@@ -8592,16 +8592,16 @@
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C40" s="11">
         <v>135</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E40" t="s">
         <v>171</v>
@@ -8690,16 +8690,16 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C41" s="11">
         <v>135</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E41" t="s">
         <v>366</v>
@@ -8732,10 +8732,10 @@
         <v>368</v>
       </c>
       <c r="O41" t="s">
+        <v>825</v>
+      </c>
+      <c r="P41" t="s">
         <v>826</v>
-      </c>
-      <c r="P41" t="s">
-        <v>827</v>
       </c>
       <c r="Q41" t="s">
         <v>40</v>
@@ -8783,12 +8783,12 @@
         <v>0</v>
       </c>
       <c r="AF41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B42" t="s">
         <v>429</v>
@@ -8797,7 +8797,7 @@
         <v>136</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E42" t="s">
         <v>171</v>
@@ -8886,16 +8886,16 @@
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B43" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C43" s="11">
         <v>137</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E43" t="s">
         <v>284</v>
@@ -8931,7 +8931,7 @@
         <v>288</v>
       </c>
       <c r="P43" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="Q43" t="s">
         <v>40</v>
@@ -8979,12 +8979,12 @@
         <v>0</v>
       </c>
       <c r="AF43" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B44" t="s">
         <v>436</v>
@@ -8993,7 +8993,7 @@
         <v>138</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E44" t="s">
         <v>284</v>
@@ -9029,7 +9029,7 @@
         <v>288</v>
       </c>
       <c r="P44" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="Q44" t="s">
         <v>40</v>
@@ -9077,21 +9077,21 @@
         <v>0</v>
       </c>
       <c r="AF44" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B45" t="s">
-        <v>483</v>
+        <v>1267</v>
       </c>
       <c r="C45" s="11">
         <v>139</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E45" t="s">
         <v>272</v>
@@ -9127,7 +9127,7 @@
         <v>276</v>
       </c>
       <c r="P45" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q45" t="s">
         <v>49</v>
@@ -9175,21 +9175,21 @@
         <v>0</v>
       </c>
       <c r="AF45" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C46" s="11">
         <v>140</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E46" t="s">
         <v>272</v>
@@ -9225,7 +9225,7 @@
         <v>276</v>
       </c>
       <c r="P46" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q46" t="s">
         <v>40</v>
@@ -9273,21 +9273,21 @@
         <v>0</v>
       </c>
       <c r="AF46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B47" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C47" s="11">
         <v>141</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E47" t="s">
         <v>453</v>
@@ -9323,7 +9323,7 @@
         <v>457</v>
       </c>
       <c r="P47" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q47" t="s">
         <v>40</v>
@@ -9371,21 +9371,21 @@
         <v>0</v>
       </c>
       <c r="AF47" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C48" s="11">
         <v>142</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E48" t="s">
         <v>453</v>
@@ -9421,7 +9421,7 @@
         <v>457</v>
       </c>
       <c r="P48" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q48" t="s">
         <v>40</v>
@@ -9469,21 +9469,21 @@
         <v>0</v>
       </c>
       <c r="AF48" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B49" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C49" s="11">
         <v>143</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E49" t="s">
         <v>136</v>
@@ -9519,7 +9519,7 @@
         <v>140</v>
       </c>
       <c r="P49" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q49" t="s">
         <v>49</v>
@@ -9567,21 +9567,21 @@
         <v>0</v>
       </c>
       <c r="AF49" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C50" s="11">
         <v>144</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E50" t="s">
         <v>272</v>
@@ -9665,21 +9665,21 @@
         <v>0</v>
       </c>
       <c r="AF50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B51" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C51" s="11">
         <v>145</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E51" t="s">
         <v>354</v>
@@ -9768,16 +9768,16 @@
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B52" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C52" s="11">
         <v>150</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E52" t="s">
         <v>121</v>
@@ -9813,7 +9813,7 @@
         <v>125</v>
       </c>
       <c r="P52" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Q52" t="s">
         <v>40</v>
@@ -9861,21 +9861,21 @@
         <v>0</v>
       </c>
       <c r="AF52" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B53" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C53" s="11">
         <v>151</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E53" t="s">
         <v>260</v>
@@ -9911,7 +9911,7 @@
         <v>264</v>
       </c>
       <c r="P53" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q53" t="s">
         <v>49</v>
@@ -9959,21 +9959,21 @@
         <v>0</v>
       </c>
       <c r="AF53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B54" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C54" s="11">
         <v>151</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E54" t="s">
         <v>72</v>
@@ -10009,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="P54" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q54" t="s">
         <v>49</v>
@@ -10057,21 +10057,21 @@
         <v>0</v>
       </c>
       <c r="AF54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B55" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C55" s="11">
         <v>152</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E55" t="s">
         <v>152</v>
@@ -10104,10 +10104,10 @@
         <v>156</v>
       </c>
       <c r="O55" t="s">
+        <v>903</v>
+      </c>
+      <c r="P55" t="s">
         <v>904</v>
-      </c>
-      <c r="P55" t="s">
-        <v>905</v>
       </c>
       <c r="Q55" t="s">
         <v>40</v>
@@ -10155,21 +10155,21 @@
         <v>0</v>
       </c>
       <c r="AF55" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B56" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C56" s="11">
         <v>153</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E56" t="s">
         <v>260</v>
@@ -10205,7 +10205,7 @@
         <v>264</v>
       </c>
       <c r="P56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="Q56" t="s">
         <v>49</v>
@@ -10253,21 +10253,21 @@
         <v>0</v>
       </c>
       <c r="AF56" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B57" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C57" s="11">
         <v>154</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
@@ -10303,7 +10303,7 @@
         <v>77</v>
       </c>
       <c r="P57" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="Q57" t="s">
         <v>49</v>
@@ -10351,21 +10351,21 @@
         <v>0</v>
       </c>
       <c r="AF57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B58" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C58" s="11">
         <v>155</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E58" t="s">
         <v>121</v>
@@ -10401,7 +10401,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="Q58" t="s">
         <v>40</v>
@@ -10449,21 +10449,21 @@
         <v>0</v>
       </c>
       <c r="AF58" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B59" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C59" s="11">
         <v>156</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E59" t="s">
         <v>121</v>
@@ -10499,7 +10499,7 @@
         <v>125</v>
       </c>
       <c r="P59" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="Q59" t="s">
         <v>49</v>
@@ -10547,21 +10547,21 @@
         <v>0</v>
       </c>
       <c r="AF59" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B60" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C60" s="11">
         <v>157</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E60" t="s">
         <v>121</v>
@@ -10597,7 +10597,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="Q60" t="s">
         <v>49</v>
@@ -10645,21 +10645,21 @@
         <v>0</v>
       </c>
       <c r="AF60" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B61" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C61" s="11">
         <v>157</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E61" t="s">
         <v>121</v>
@@ -10695,7 +10695,7 @@
         <v>125</v>
       </c>
       <c r="P61" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q61" t="s">
         <v>49</v>
@@ -10743,21 +10743,21 @@
         <v>0</v>
       </c>
       <c r="AF61" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B62" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C62" s="11">
         <v>157</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E62" t="s">
         <v>121</v>
@@ -10793,7 +10793,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Q62" t="s">
         <v>49</v>
@@ -10841,21 +10841,21 @@
         <v>0</v>
       </c>
       <c r="AF62" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B63" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C63" s="11">
         <v>158</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E63" t="s">
         <v>260</v>
@@ -10891,7 +10891,7 @@
         <v>264</v>
       </c>
       <c r="P63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Q63" t="s">
         <v>49</v>
@@ -10939,21 +10939,21 @@
         <v>0</v>
       </c>
       <c r="AF63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B64" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C64" s="11">
         <v>160</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E64" t="s">
         <v>260</v>
@@ -10989,7 +10989,7 @@
         <v>264</v>
       </c>
       <c r="P64" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="Q64" t="s">
         <v>40</v>
@@ -11037,21 +11037,21 @@
         <v>0</v>
       </c>
       <c r="AF64" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B65" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C65" s="11">
         <v>160</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E65" t="s">
         <v>121</v>
@@ -11087,7 +11087,7 @@
         <v>125</v>
       </c>
       <c r="P65" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Q65" t="s">
         <v>40</v>
@@ -11135,21 +11135,21 @@
         <v>0</v>
       </c>
       <c r="AF65" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B66" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C66" s="11">
         <v>161</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E66" t="s">
         <v>260</v>
@@ -11185,7 +11185,7 @@
         <v>264</v>
       </c>
       <c r="P66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q66" t="s">
         <v>49</v>
@@ -11233,21 +11233,21 @@
         <v>0</v>
       </c>
       <c r="AF66" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B67" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C67" s="11">
         <v>162</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E67" t="s">
         <v>121</v>
@@ -11283,7 +11283,7 @@
         <v>125</v>
       </c>
       <c r="P67" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Q67" t="s">
         <v>40</v>
@@ -11331,21 +11331,21 @@
         <v>0</v>
       </c>
       <c r="AF67" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B68" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C68" s="11">
         <v>163</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E68" t="s">
         <v>72</v>
@@ -11381,7 +11381,7 @@
         <v>77</v>
       </c>
       <c r="P68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Q68" t="s">
         <v>49</v>
@@ -11429,21 +11429,21 @@
         <v>0</v>
       </c>
       <c r="AF68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B69" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C69" s="11">
         <v>164</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E69" t="s">
         <v>260</v>
@@ -11479,7 +11479,7 @@
         <v>264</v>
       </c>
       <c r="P69" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="Q69" t="s">
         <v>40</v>
@@ -11527,21 +11527,21 @@
         <v>0</v>
       </c>
       <c r="AF69" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B70" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C70" s="11">
         <v>165</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E70" t="s">
         <v>72</v>
@@ -11577,7 +11577,7 @@
         <v>77</v>
       </c>
       <c r="P70" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Q70" t="s">
         <v>49</v>
@@ -11625,21 +11625,21 @@
         <v>0</v>
       </c>
       <c r="AF70" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B71" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C71" s="11">
         <v>166</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E71" t="s">
         <v>260</v>
@@ -11675,7 +11675,7 @@
         <v>264</v>
       </c>
       <c r="P71" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="Q71" t="s">
         <v>40</v>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="AF71" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
@@ -11731,13 +11731,13 @@
         <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C72" s="11">
         <v>167</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E72" t="s">
         <v>82</v>
@@ -11826,16 +11826,16 @@
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B73" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C73" s="11">
         <v>168</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E73" t="s">
         <v>272</v>
@@ -11871,7 +11871,7 @@
         <v>276</v>
       </c>
       <c r="P73" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="Q73" t="s">
         <v>40</v>
@@ -11919,21 +11919,21 @@
         <v>0</v>
       </c>
       <c r="AF73" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B74" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C74" s="11">
         <v>169</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E74" t="s">
         <v>260</v>
@@ -11969,7 +11969,7 @@
         <v>264</v>
       </c>
       <c r="P74" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="Q74" t="s">
         <v>40</v>
@@ -12017,24 +12017,24 @@
         <v>0</v>
       </c>
       <c r="AF74" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B75" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C75" s="11">
         <v>170</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E75" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F75">
         <v>3373</v>
@@ -12052,22 +12052,22 @@
         <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L75" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M75" t="s">
         <v>36</v>
       </c>
       <c r="N75" t="s">
+        <v>603</v>
+      </c>
+      <c r="O75" t="s">
         <v>604</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>605</v>
-      </c>
-      <c r="P75" t="s">
-        <v>606</v>
       </c>
       <c r="Q75" t="s">
         <v>49</v>
@@ -12115,21 +12115,21 @@
         <v>0</v>
       </c>
       <c r="AF75" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B76" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C76" s="11">
         <v>171</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E76" t="s">
         <v>62</v>
@@ -12162,10 +12162,10 @@
         <v>67</v>
       </c>
       <c r="O76" t="s">
+        <v>692</v>
+      </c>
+      <c r="P76" t="s">
         <v>693</v>
-      </c>
-      <c r="P76" t="s">
-        <v>694</v>
       </c>
       <c r="Q76" t="s">
         <v>40</v>
@@ -12213,21 +12213,21 @@
         <v>0</v>
       </c>
       <c r="AF76" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B77" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C77" s="11">
         <v>172</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E77" t="s">
         <v>62</v>
@@ -12260,10 +12260,10 @@
         <v>67</v>
       </c>
       <c r="O77" t="s">
+        <v>624</v>
+      </c>
+      <c r="P77" t="s">
         <v>625</v>
-      </c>
-      <c r="P77" t="s">
-        <v>626</v>
       </c>
       <c r="Q77" t="s">
         <v>40</v>
@@ -12311,24 +12311,24 @@
         <v>0</v>
       </c>
       <c r="AF77" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B78" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C78" s="11">
         <v>173</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F78">
         <v>318</v>
@@ -12346,22 +12346,22 @@
         <v>33</v>
       </c>
       <c r="K78" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L78" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M78" t="s">
         <v>36</v>
       </c>
       <c r="N78" t="s">
+        <v>603</v>
+      </c>
+      <c r="O78" t="s">
         <v>604</v>
       </c>
-      <c r="O78" t="s">
-        <v>605</v>
-      </c>
       <c r="P78" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q78" t="s">
         <v>49</v>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="AF78" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
@@ -12417,13 +12417,13 @@
         <v>388</v>
       </c>
       <c r="B79" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C79" s="11">
         <v>174</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E79" t="s">
         <v>366</v>
@@ -12456,10 +12456,10 @@
         <v>368</v>
       </c>
       <c r="O79" t="s">
+        <v>727</v>
+      </c>
+      <c r="P79" t="s">
         <v>728</v>
-      </c>
-      <c r="P79" t="s">
-        <v>729</v>
       </c>
       <c r="Q79" t="s">
         <v>40</v>
@@ -12507,24 +12507,24 @@
         <v>0</v>
       </c>
       <c r="AF79" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B80" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C80" s="11">
         <v>176</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E80" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F80">
         <v>183</v>
@@ -12542,22 +12542,22 @@
         <v>33</v>
       </c>
       <c r="K80" t="s">
+        <v>813</v>
+      </c>
+      <c r="L80" t="s">
         <v>814</v>
-      </c>
-      <c r="L80" t="s">
-        <v>815</v>
       </c>
       <c r="M80" t="s">
         <v>36</v>
       </c>
       <c r="N80" t="s">
+        <v>815</v>
+      </c>
+      <c r="O80" t="s">
         <v>816</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>817</v>
-      </c>
-      <c r="P80" t="s">
-        <v>818</v>
       </c>
       <c r="Q80" t="s">
         <v>40</v>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AF80" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
@@ -12613,13 +12613,13 @@
         <v>459</v>
       </c>
       <c r="B81" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C81" s="11">
         <v>177</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E81" t="s">
         <v>453</v>
@@ -12711,13 +12711,13 @@
         <v>195</v>
       </c>
       <c r="B82" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C82" s="11">
         <v>178</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E82" t="s">
         <v>453</v>
@@ -12806,19 +12806,19 @@
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B83" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C83" s="11">
         <v>179</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E83" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F83">
         <v>863</v>
@@ -12836,22 +12836,22 @@
         <v>63</v>
       </c>
       <c r="K83" t="s">
+        <v>616</v>
+      </c>
+      <c r="L83" t="s">
         <v>617</v>
-      </c>
-      <c r="L83" t="s">
-        <v>618</v>
       </c>
       <c r="M83" t="s">
         <v>36</v>
       </c>
       <c r="N83" t="s">
+        <v>618</v>
+      </c>
+      <c r="O83" t="s">
         <v>619</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>620</v>
-      </c>
-      <c r="P83" t="s">
-        <v>621</v>
       </c>
       <c r="Q83" t="s">
         <v>49</v>
@@ -12899,7 +12899,7 @@
         <v>0</v>
       </c>
       <c r="AF83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
@@ -12907,13 +12907,13 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C84" s="11">
         <v>180</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E84" t="s">
         <v>72</v>
@@ -13005,13 +13005,13 @@
         <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C85" s="11">
         <v>181</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E85" t="s">
         <v>72</v>
@@ -13100,16 +13100,16 @@
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B86" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C86" s="11">
         <v>182</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E86" t="s">
         <v>72</v>
@@ -13145,7 +13145,7 @@
         <v>77</v>
       </c>
       <c r="P86" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q86" t="s">
         <v>40</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="AF86" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
@@ -13201,13 +13201,13 @@
         <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C87" s="11">
         <v>183</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
@@ -13296,16 +13296,16 @@
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B88" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C88" s="11">
         <v>184</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E88" t="s">
         <v>72</v>
@@ -13341,7 +13341,7 @@
         <v>77</v>
       </c>
       <c r="P88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q88" t="s">
         <v>49</v>
@@ -13389,21 +13389,21 @@
         <v>0</v>
       </c>
       <c r="AF88" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B89" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C89" s="11">
         <v>185</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E89" t="s">
         <v>72</v>
@@ -13439,7 +13439,7 @@
         <v>77</v>
       </c>
       <c r="P89" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q89" t="s">
         <v>49</v>
@@ -13487,21 +13487,21 @@
         <v>0</v>
       </c>
       <c r="AF89" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B90" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C90" s="11">
         <v>186</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E90" t="s">
         <v>72</v>
@@ -13537,7 +13537,7 @@
         <v>77</v>
       </c>
       <c r="P90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Q90" t="s">
         <v>49</v>
@@ -13585,21 +13585,21 @@
         <v>0</v>
       </c>
       <c r="AF90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B91" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C91" s="11">
         <v>187</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E91" t="s">
         <v>72</v>
@@ -13635,7 +13635,7 @@
         <v>77</v>
       </c>
       <c r="P91" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q91" t="s">
         <v>40</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="AF91" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
@@ -13691,13 +13691,13 @@
         <v>79</v>
       </c>
       <c r="B92" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C92" s="11">
         <v>188</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E92" t="s">
         <v>72</v>
@@ -13786,16 +13786,16 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B93" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C93" s="11">
         <v>189</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E93" t="s">
         <v>44</v>
@@ -13884,19 +13884,19 @@
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B94" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C94" s="11">
         <v>189</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E94" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F94">
         <v>351</v>
@@ -13917,19 +13917,19 @@
         <v>34</v>
       </c>
       <c r="L94" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M94" t="s">
         <v>36</v>
       </c>
       <c r="N94" t="s">
+        <v>666</v>
+      </c>
+      <c r="O94" t="s">
         <v>667</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>668</v>
-      </c>
-      <c r="P94" t="s">
-        <v>669</v>
       </c>
       <c r="Q94" t="s">
         <v>40</v>
@@ -13977,24 +13977,24 @@
         <v>0</v>
       </c>
       <c r="AF94" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B95" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C95" s="11">
         <v>189</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E95" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F95">
         <v>408</v>
@@ -14012,22 +14012,22 @@
         <v>33</v>
       </c>
       <c r="K95" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L95" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M95" t="s">
         <v>36</v>
       </c>
       <c r="N95" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O95" t="s">
+        <v>637</v>
+      </c>
+      <c r="P95" t="s">
         <v>638</v>
-      </c>
-      <c r="P95" t="s">
-        <v>639</v>
       </c>
       <c r="Q95" t="s">
         <v>49</v>
@@ -14075,24 +14075,24 @@
         <v>0</v>
       </c>
       <c r="AF95" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B96" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C96" s="11">
         <v>189</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E96" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F96">
         <v>408</v>
@@ -14113,19 +14113,19 @@
         <v>34</v>
       </c>
       <c r="L96" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M96" t="s">
         <v>36</v>
       </c>
       <c r="N96" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O96" t="s">
+        <v>637</v>
+      </c>
+      <c r="P96" t="s">
         <v>638</v>
-      </c>
-      <c r="P96" t="s">
-        <v>639</v>
       </c>
       <c r="Q96" t="s">
         <v>49</v>
@@ -14173,24 +14173,24 @@
         <v>0</v>
       </c>
       <c r="AF96" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B97" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C97" s="11">
         <v>189</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E97" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F97">
         <v>330</v>
@@ -14211,19 +14211,19 @@
         <v>34</v>
       </c>
       <c r="L97" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M97" t="s">
         <v>36</v>
       </c>
       <c r="N97" t="s">
+        <v>659</v>
+      </c>
+      <c r="O97" t="s">
         <v>660</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>661</v>
-      </c>
-      <c r="P97" t="s">
-        <v>662</v>
       </c>
       <c r="Q97" t="s">
         <v>40</v>
@@ -14271,21 +14271,21 @@
         <v>0</v>
       </c>
       <c r="AF97" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B98" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C98" s="11">
         <v>189</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E98" t="s">
         <v>30</v>
@@ -14374,19 +14374,19 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B99" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C99" s="11">
         <v>189</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E99" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F99">
         <v>336</v>
@@ -14404,22 +14404,22 @@
         <v>33</v>
       </c>
       <c r="K99" t="s">
+        <v>646</v>
+      </c>
+      <c r="L99" t="s">
         <v>647</v>
-      </c>
-      <c r="L99" t="s">
-        <v>648</v>
       </c>
       <c r="M99" t="s">
         <v>36</v>
       </c>
       <c r="N99" t="s">
+        <v>648</v>
+      </c>
+      <c r="O99" t="s">
         <v>649</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>650</v>
-      </c>
-      <c r="P99" t="s">
-        <v>651</v>
       </c>
       <c r="Q99" t="s">
         <v>49</v>
@@ -14467,24 +14467,24 @@
         <v>0</v>
       </c>
       <c r="AF99" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B100" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C100" s="11">
         <v>189</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F100">
         <v>336</v>
@@ -14502,22 +14502,22 @@
         <v>33</v>
       </c>
       <c r="K100" t="s">
+        <v>646</v>
+      </c>
+      <c r="L100" t="s">
         <v>647</v>
-      </c>
-      <c r="L100" t="s">
-        <v>648</v>
       </c>
       <c r="M100" t="s">
         <v>36</v>
       </c>
       <c r="N100" t="s">
+        <v>653</v>
+      </c>
+      <c r="O100" t="s">
         <v>654</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>655</v>
-      </c>
-      <c r="P100" t="s">
-        <v>656</v>
       </c>
       <c r="Q100" t="s">
         <v>49</v>
@@ -14565,24 +14565,24 @@
         <v>0</v>
       </c>
       <c r="AF100" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B101" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C101" s="11">
         <v>189</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E101" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F101">
         <v>468</v>
@@ -14600,22 +14600,22 @@
         <v>33</v>
       </c>
       <c r="K101" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L101" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M101" t="s">
         <v>36</v>
       </c>
       <c r="N101" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O101" t="s">
+        <v>637</v>
+      </c>
+      <c r="P101" t="s">
         <v>638</v>
-      </c>
-      <c r="P101" t="s">
-        <v>639</v>
       </c>
       <c r="Q101" t="s">
         <v>49</v>
@@ -14663,24 +14663,24 @@
         <v>0</v>
       </c>
       <c r="AF101" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B102" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C102" s="11">
         <v>189</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E102" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F102">
         <v>468</v>
@@ -14701,19 +14701,19 @@
         <v>34</v>
       </c>
       <c r="L102" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M102" t="s">
         <v>36</v>
       </c>
       <c r="N102" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O102" t="s">
+        <v>637</v>
+      </c>
+      <c r="P102" t="s">
         <v>638</v>
-      </c>
-      <c r="P102" t="s">
-        <v>639</v>
       </c>
       <c r="Q102" t="s">
         <v>49</v>
@@ -14761,24 +14761,24 @@
         <v>0</v>
       </c>
       <c r="AF102" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B103" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C103" s="11">
         <v>190</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E103" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F103">
         <v>757</v>
@@ -14796,22 +14796,22 @@
         <v>63</v>
       </c>
       <c r="K103" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="L103" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M103" t="s">
         <v>54</v>
       </c>
       <c r="N103" t="s">
+        <v>631</v>
+      </c>
+      <c r="O103" t="s">
         <v>632</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>633</v>
-      </c>
-      <c r="P103" t="s">
-        <v>634</v>
       </c>
       <c r="Q103" t="s">
         <v>40</v>
@@ -14859,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="AF103" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.2">
@@ -14867,13 +14867,13 @@
         <v>278</v>
       </c>
       <c r="B104" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C104" s="11">
         <v>191</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E104" t="s">
         <v>272</v>
@@ -14965,13 +14965,13 @@
         <v>467</v>
       </c>
       <c r="B105" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C105" s="11">
         <v>192</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E105" t="s">
         <v>354</v>
@@ -15063,13 +15063,13 @@
         <v>326</v>
       </c>
       <c r="B106" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C106" s="11">
         <v>193</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E106" t="s">
         <v>354</v>
@@ -15158,16 +15158,16 @@
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B107" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C107" s="11">
         <v>194</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E107" t="s">
         <v>152</v>
@@ -15200,10 +15200,10 @@
         <v>156</v>
       </c>
       <c r="O107" t="s">
+        <v>525</v>
+      </c>
+      <c r="P107" t="s">
         <v>526</v>
-      </c>
-      <c r="P107" t="s">
-        <v>527</v>
       </c>
       <c r="Q107" t="s">
         <v>40</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="AF107" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.2">
@@ -15259,13 +15259,13 @@
         <v>303</v>
       </c>
       <c r="B108" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C108" s="11">
         <v>195</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E108" t="s">
         <v>152</v>
@@ -15357,13 +15357,13 @@
         <v>236</v>
       </c>
       <c r="B109" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C109" s="11">
         <v>196</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E109" t="s">
         <v>152</v>
@@ -15455,13 +15455,13 @@
         <v>444</v>
       </c>
       <c r="B110" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C110" s="11">
         <v>197</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E110" t="s">
         <v>180</v>
@@ -15553,13 +15553,13 @@
         <v>281</v>
       </c>
       <c r="B111" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C111" s="11">
         <v>198</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E111" t="s">
         <v>62</v>
@@ -15648,19 +15648,19 @@
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B112" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C112" s="11">
         <v>199</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E112" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F112">
         <v>2448</v>
@@ -15675,25 +15675,25 @@
         <v>106</v>
       </c>
       <c r="J112" t="s">
+        <v>672</v>
+      </c>
+      <c r="K112" t="s">
         <v>673</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>674</v>
-      </c>
-      <c r="L112" t="s">
-        <v>675</v>
       </c>
       <c r="M112" t="s">
         <v>36</v>
       </c>
       <c r="N112" t="s">
+        <v>675</v>
+      </c>
+      <c r="O112" t="s">
         <v>676</v>
       </c>
-      <c r="O112" t="s">
-        <v>677</v>
-      </c>
       <c r="P112" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q112" t="s">
         <v>40</v>
@@ -15741,24 +15741,24 @@
         <v>0</v>
       </c>
       <c r="AF112" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B113" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C113" s="11">
         <v>200</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E113" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F113">
         <v>3733</v>
@@ -15773,25 +15773,25 @@
         <v>106</v>
       </c>
       <c r="J113" t="s">
+        <v>672</v>
+      </c>
+      <c r="K113" t="s">
         <v>673</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>674</v>
-      </c>
-      <c r="L113" t="s">
-        <v>675</v>
       </c>
       <c r="M113" t="s">
         <v>36</v>
       </c>
       <c r="N113" t="s">
+        <v>675</v>
+      </c>
+      <c r="O113" t="s">
         <v>676</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>677</v>
-      </c>
-      <c r="P113" t="s">
-        <v>678</v>
       </c>
       <c r="Q113" t="s">
         <v>40</v>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="AF113" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
@@ -15847,13 +15847,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C114" s="11">
         <v>201</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E114" t="s">
         <v>105</v>
@@ -15945,13 +15945,13 @@
         <v>131</v>
       </c>
       <c r="B115" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C115" s="11">
         <v>202</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E115" t="s">
         <v>105</v>
@@ -16040,16 +16040,16 @@
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B116" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C116" s="11">
         <v>203</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E116" t="s">
         <v>121</v>
@@ -16085,7 +16085,7 @@
         <v>125</v>
       </c>
       <c r="P116" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="Q116" t="s">
         <v>49</v>
@@ -16133,21 +16133,21 @@
         <v>0</v>
       </c>
       <c r="AF116" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B117" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C117" s="11">
         <v>204</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E117" t="s">
         <v>121</v>
@@ -16183,7 +16183,7 @@
         <v>125</v>
       </c>
       <c r="P117" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q117" t="s">
         <v>40</v>
@@ -16231,21 +16231,21 @@
         <v>0</v>
       </c>
       <c r="AF117" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B118" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C118" s="11">
         <v>205</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E118" t="s">
         <v>121</v>
@@ -16281,7 +16281,7 @@
         <v>125</v>
       </c>
       <c r="P118" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Q118" t="s">
         <v>40</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="AF118" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.2">
@@ -16337,13 +16337,13 @@
         <v>239</v>
       </c>
       <c r="B119" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C119" s="11">
         <v>206</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E119" t="s">
         <v>121</v>
@@ -16435,13 +16435,13 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C120" s="11">
         <v>207</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E120" t="s">
         <v>121</v>
@@ -16530,16 +16530,16 @@
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B121" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C121" s="11">
         <v>208</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E121" t="s">
         <v>366</v>
@@ -16572,10 +16572,10 @@
         <v>368</v>
       </c>
       <c r="O121" t="s">
+        <v>745</v>
+      </c>
+      <c r="P121" t="s">
         <v>746</v>
-      </c>
-      <c r="P121" t="s">
-        <v>747</v>
       </c>
       <c r="Q121" t="s">
         <v>49</v>
@@ -16623,21 +16623,21 @@
         <v>0</v>
       </c>
       <c r="AF121" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B122" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C122" s="11">
         <v>209</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E122" t="s">
         <v>260</v>
@@ -16673,7 +16673,7 @@
         <v>264</v>
       </c>
       <c r="P122" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q122" t="s">
         <v>40</v>
@@ -16721,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="AF122" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.2">
@@ -16729,13 +16729,13 @@
         <v>400</v>
       </c>
       <c r="B123" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C123" s="11">
         <v>210</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E123" t="s">
         <v>260</v>
@@ -16771,7 +16771,7 @@
         <v>264</v>
       </c>
       <c r="P123" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q123" t="s">
         <v>49</v>
@@ -16819,21 +16819,21 @@
         <v>0</v>
       </c>
       <c r="AF123" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B124" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C124" s="11">
         <v>211</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E124" t="s">
         <v>260</v>
@@ -16869,7 +16869,7 @@
         <v>264</v>
       </c>
       <c r="P124" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="Q124" t="s">
         <v>49</v>
@@ -16917,21 +16917,21 @@
         <v>0</v>
       </c>
       <c r="AF124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B125" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C125" s="11">
         <v>212</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="E125" t="s">
         <v>260</v>
@@ -16967,7 +16967,7 @@
         <v>264</v>
       </c>
       <c r="P125" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Q125" t="s">
         <v>49</v>
@@ -17015,21 +17015,21 @@
         <v>0</v>
       </c>
       <c r="AF125" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B126" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C126" s="11">
         <v>213</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="E126" t="s">
         <v>260</v>
@@ -17065,7 +17065,7 @@
         <v>264</v>
       </c>
       <c r="P126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q126" t="s">
         <v>40</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="AF126" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.2">
@@ -17121,13 +17121,13 @@
         <v>318</v>
       </c>
       <c r="B127" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C127" s="11">
         <v>214</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E127" t="s">
         <v>260</v>
@@ -17219,13 +17219,13 @@
         <v>266</v>
       </c>
       <c r="B128" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C128" s="11">
         <v>215</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E128" t="s">
         <v>260</v>
@@ -17314,16 +17314,16 @@
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B129" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C129" s="11">
         <v>216</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E129" t="s">
         <v>260</v>
@@ -17359,7 +17359,7 @@
         <v>264</v>
       </c>
       <c r="P129" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="Q129" t="s">
         <v>40</v>
@@ -17407,21 +17407,21 @@
         <v>0</v>
       </c>
       <c r="AF129" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B130" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C130" s="11">
         <v>217</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E130" t="s">
         <v>82</v>
@@ -17457,7 +17457,7 @@
         <v>86</v>
       </c>
       <c r="P130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q130" t="s">
         <v>40</v>
@@ -17505,7 +17505,7 @@
         <v>0</v>
       </c>
       <c r="AF130" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.2">
@@ -17513,13 +17513,13 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C131" s="11">
         <v>218</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E131" t="s">
         <v>82</v>
@@ -17608,19 +17608,19 @@
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B132" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C132" s="11">
         <v>219</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E132" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F132">
         <v>2995</v>
@@ -17635,25 +17635,25 @@
         <v>106</v>
       </c>
       <c r="J132" t="s">
+        <v>702</v>
+      </c>
+      <c r="K132" t="s">
         <v>703</v>
       </c>
-      <c r="K132" t="s">
+      <c r="L132" t="s">
         <v>704</v>
-      </c>
-      <c r="L132" t="s">
-        <v>705</v>
       </c>
       <c r="M132" t="s">
         <v>54</v>
       </c>
       <c r="N132" t="s">
+        <v>705</v>
+      </c>
+      <c r="O132" t="s">
         <v>706</v>
       </c>
-      <c r="O132" t="s">
+      <c r="P132" t="s">
         <v>707</v>
-      </c>
-      <c r="P132" t="s">
-        <v>708</v>
       </c>
       <c r="Q132" t="s">
         <v>40</v>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="AF132" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -17731,7 +17731,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>28</v>
@@ -17753,10 +17753,10 @@
         <v>92706775</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -17764,10 +17764,10 @@
         <v>36780</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -17775,10 +17775,10 @@
         <v>393893</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -17786,10 +17786,10 @@
         <v>709</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -17797,10 +17797,10 @@
         <v>230394727</v>
       </c>
       <c r="B7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -17808,10 +17808,10 @@
         <v>3399577</v>
       </c>
       <c r="B8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -17819,7 +17819,7 @@
         <v>5491</v>
       </c>
       <c r="B9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C9" t="s">
         <v>100</v>
@@ -17830,7 +17830,7 @@
         <v>48166605</v>
       </c>
       <c r="B10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C10" t="s">
         <v>271</v>
@@ -17841,7 +17841,7 @@
         <v>230387503</v>
       </c>
       <c r="B11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C11" t="s">
         <v>71</v>
@@ -17852,10 +17852,10 @@
         <v>44073</v>
       </c>
       <c r="B12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -17863,7 +17863,7 @@
         <v>8551</v>
       </c>
       <c r="B13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C13" t="s">
         <v>478</v>
@@ -17874,7 +17874,7 @@
         <v>21112</v>
       </c>
       <c r="B14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C14" t="s">
         <v>187</v>
@@ -17885,7 +17885,7 @@
         <v>62864</v>
       </c>
       <c r="B15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C15" t="s">
         <v>475</v>
@@ -17896,10 +17896,10 @@
         <v>14636987</v>
       </c>
       <c r="B16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -17907,10 +17907,10 @@
         <v>521</v>
       </c>
       <c r="B17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -17918,10 +17918,10 @@
         <v>459274</v>
       </c>
       <c r="B18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -17929,7 +17929,7 @@
         <v>5528</v>
       </c>
       <c r="B19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C19" t="s">
         <v>144</v>
@@ -17940,10 +17940,10 @@
         <v>433</v>
       </c>
       <c r="B20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -17951,7 +17951,7 @@
         <v>6794</v>
       </c>
       <c r="B21" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C21" t="s">
         <v>151</v>
@@ -17962,7 +17962,7 @@
         <v>1105</v>
       </c>
       <c r="B22" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C22" t="s">
         <v>203</v>
@@ -17973,7 +17973,7 @@
         <v>14783</v>
       </c>
       <c r="B23" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C23" t="s">
         <v>207</v>
@@ -17984,7 +17984,7 @@
         <v>79733</v>
       </c>
       <c r="B24" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C24" t="s">
         <v>207</v>
@@ -17995,7 +17995,7 @@
         <v>79610</v>
       </c>
       <c r="B25" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -18006,7 +18006,7 @@
         <v>12833391</v>
       </c>
       <c r="B26" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C26" t="s">
         <v>340</v>
@@ -18017,7 +18017,7 @@
         <v>29241</v>
       </c>
       <c r="B27" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C27" t="s">
         <v>331</v>
@@ -18028,10 +18028,10 @@
         <v>35620</v>
       </c>
       <c r="B28" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -18039,10 +18039,10 @@
         <v>12841261</v>
       </c>
       <c r="B29" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -18050,7 +18050,7 @@
         <v>123747</v>
       </c>
       <c r="B30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C30" t="s">
         <v>353</v>
@@ -18061,7 +18061,7 @@
         <v>365906</v>
       </c>
       <c r="B31" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C31" t="s">
         <v>372</v>
@@ -18072,10 +18072,10 @@
         <v>2831</v>
       </c>
       <c r="B32" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C32" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -18083,10 +18083,10 @@
         <v>681</v>
       </c>
       <c r="B33" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C33" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -18094,7 +18094,7 @@
         <v>1775</v>
       </c>
       <c r="B34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C34" t="s">
         <v>382</v>
@@ -18105,10 +18105,10 @@
         <v>30634</v>
       </c>
       <c r="B35" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C35" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -18116,10 +18116,10 @@
         <v>43954</v>
       </c>
       <c r="B36" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -18127,10 +18127,10 @@
         <v>6101</v>
       </c>
       <c r="B37" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -18138,10 +18138,10 @@
         <v>2057</v>
       </c>
       <c r="B38" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -18149,10 +18149,10 @@
         <v>76945</v>
       </c>
       <c r="B39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -18160,10 +18160,10 @@
         <v>33039</v>
       </c>
       <c r="B40" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C40" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -18171,7 +18171,7 @@
         <v>192130</v>
       </c>
       <c r="B41" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C41" t="s">
         <v>419</v>
@@ -18182,7 +18182,7 @@
         <v>9501</v>
       </c>
       <c r="B42" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C42" t="s">
         <v>427</v>
@@ -18193,10 +18193,10 @@
         <v>3857172</v>
       </c>
       <c r="B43" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C43" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -18204,7 +18204,7 @@
         <v>1718</v>
       </c>
       <c r="B44" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C44" t="s">
         <v>434</v>
@@ -18215,10 +18215,10 @@
         <v>6756</v>
       </c>
       <c r="B45" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C45" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -18226,10 +18226,10 @@
         <v>294975</v>
       </c>
       <c r="B46" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -18237,10 +18237,10 @@
         <v>2600</v>
       </c>
       <c r="B47" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C47" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -18248,10 +18248,10 @@
         <v>8416</v>
       </c>
       <c r="B48" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C48" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -18259,10 +18259,10 @@
         <v>5637568</v>
       </c>
       <c r="B49" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C49" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -18270,10 +18270,10 @@
         <v>11981851</v>
       </c>
       <c r="B50" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C50" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -18281,10 +18281,10 @@
         <v>2226</v>
       </c>
       <c r="B51" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C51" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -18292,10 +18292,10 @@
         <v>58662</v>
       </c>
       <c r="B52" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C52" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -18303,7 +18303,7 @@
         <v>22152</v>
       </c>
       <c r="B53" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C53" t="s">
         <v>431</v>
@@ -18314,7 +18314,7 @@
         <v>24690141</v>
       </c>
       <c r="B54" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C54" t="s">
         <v>165</v>
@@ -18325,7 +18325,7 @@
         <v>24705775</v>
       </c>
       <c r="B55" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C55" t="s">
         <v>170</v>
@@ -18336,7 +18336,7 @@
         <v>24518446</v>
       </c>
       <c r="B56" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C56" t="s">
         <v>324</v>
@@ -18347,7 +18347,7 @@
         <v>24503054</v>
       </c>
       <c r="B57" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C57" t="s">
         <v>300</v>
@@ -18358,10 +18358,10 @@
         <v>67070</v>
       </c>
       <c r="B58" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C58" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -18369,10 +18369,10 @@
         <v>104428</v>
       </c>
       <c r="B59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C59" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -18380,10 +18380,10 @@
         <v>15981</v>
       </c>
       <c r="B60" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -18391,10 +18391,10 @@
         <v>9975753</v>
       </c>
       <c r="B61" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C61" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -18402,10 +18402,10 @@
         <v>1658530</v>
       </c>
       <c r="B62" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C62" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -18413,10 +18413,10 @@
         <v>57978</v>
       </c>
       <c r="B63" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C63" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -18424,10 +18424,10 @@
         <v>3784485</v>
       </c>
       <c r="B64" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -18435,10 +18435,10 @@
         <v>61514</v>
       </c>
       <c r="B65" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C65" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -18446,10 +18446,10 @@
         <v>209095</v>
       </c>
       <c r="B66" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C66" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -18457,10 +18457,10 @@
         <v>26629</v>
       </c>
       <c r="B67" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C67" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -18468,10 +18468,10 @@
         <v>368211</v>
       </c>
       <c r="B68" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C68" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -18479,10 +18479,10 @@
         <v>77526</v>
       </c>
       <c r="B69" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C69" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -18490,10 +18490,10 @@
         <v>26977</v>
       </c>
       <c r="B70" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C70" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -18501,10 +18501,10 @@
         <v>8143</v>
       </c>
       <c r="B71" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C71" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -18512,10 +18512,10 @@
         <v>394492</v>
       </c>
       <c r="B72" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C72" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -18523,10 +18523,10 @@
         <v>51199</v>
       </c>
       <c r="B73" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C73" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -18534,10 +18534,10 @@
         <v>232572</v>
       </c>
       <c r="B74" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C74" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -18545,10 +18545,10 @@
         <v>48800</v>
       </c>
       <c r="B75" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C75" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -18556,10 +18556,10 @@
         <v>15685</v>
       </c>
       <c r="B76" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C76" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -18567,10 +18567,10 @@
         <v>7627093</v>
       </c>
       <c r="B77" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C77" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -18578,10 +18578,10 @@
         <v>10393</v>
       </c>
       <c r="B78" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C78" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -18600,10 +18600,10 @@
         <v>11313</v>
       </c>
       <c r="B80" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C80" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -18611,10 +18611,10 @@
         <v>343</v>
       </c>
       <c r="B81" t="s">
+        <v>880</v>
+      </c>
+      <c r="C81" t="s">
         <v>881</v>
-      </c>
-      <c r="C81" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -18622,10 +18622,10 @@
         <v>356</v>
       </c>
       <c r="B82" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C82" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -18633,10 +18633,10 @@
         <v>352564249</v>
       </c>
       <c r="B83" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C83" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -18644,10 +18644,10 @@
         <v>341710146</v>
       </c>
       <c r="B84" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C84" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -18655,10 +18655,10 @@
         <v>2001</v>
       </c>
       <c r="B85" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C85" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -18669,7 +18669,7 @@
         <v>388</v>
       </c>
       <c r="C86" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -18677,10 +18677,10 @@
         <v>2110666</v>
       </c>
       <c r="B87" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C87" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -18710,10 +18710,10 @@
         <v>24513</v>
       </c>
       <c r="B90" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C90" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -18743,10 +18743,10 @@
         <v>24712785</v>
       </c>
       <c r="B93" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C93" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -18765,10 +18765,10 @@
         <v>1686942</v>
       </c>
       <c r="B95" t="s">
+        <v>540</v>
+      </c>
+      <c r="C95" t="s">
         <v>541</v>
-      </c>
-      <c r="C95" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -18776,10 +18776,10 @@
         <v>8421405</v>
       </c>
       <c r="B96" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -18787,10 +18787,10 @@
         <v>9095494</v>
       </c>
       <c r="B97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -18798,10 +18798,10 @@
         <v>8158598</v>
       </c>
       <c r="B98" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C98" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -18820,7 +18820,7 @@
         <v>256278</v>
       </c>
       <c r="B100" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C100" t="s">
         <v>51</v>
@@ -18831,10 +18831,10 @@
         <v>231510075</v>
       </c>
       <c r="B101" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C101" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -18842,10 +18842,10 @@
         <v>9935592</v>
       </c>
       <c r="B102" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C102" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -18853,10 +18853,10 @@
         <v>9935592</v>
       </c>
       <c r="B103" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C103" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -18864,10 +18864,10 @@
         <v>15351</v>
       </c>
       <c r="B104" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C104" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -18875,7 +18875,7 @@
         <v>1557</v>
       </c>
       <c r="B105" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C105" t="s">
         <v>43</v>
@@ -18886,10 +18886,10 @@
         <v>58968</v>
       </c>
       <c r="B106" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C106" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -18897,10 +18897,10 @@
         <v>5184</v>
       </c>
       <c r="B107" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C107" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -18908,10 +18908,10 @@
         <v>9982632</v>
       </c>
       <c r="B108" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C108" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -18919,10 +18919,10 @@
         <v>9982632</v>
       </c>
       <c r="B109" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C109" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -18930,10 +18930,10 @@
         <v>81310193</v>
       </c>
       <c r="B110" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C110" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -18974,10 +18974,10 @@
         <v>1912708</v>
       </c>
       <c r="B114" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C114" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -19029,10 +19029,10 @@
         <v>915945</v>
       </c>
       <c r="B119" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C119" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -19040,10 +19040,10 @@
         <v>9405476</v>
       </c>
       <c r="B120" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C120" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -19073,10 +19073,10 @@
         <v>188701</v>
       </c>
       <c r="B123" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C123" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -19084,10 +19084,10 @@
         <v>648708</v>
       </c>
       <c r="B124" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C124" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -19095,10 +19095,10 @@
         <v>82850</v>
       </c>
       <c r="B125" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C125" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -19128,10 +19128,10 @@
         <v>12296693</v>
       </c>
       <c r="B128" t="s">
+        <v>747</v>
+      </c>
+      <c r="C128" t="s">
         <v>748</v>
-      </c>
-      <c r="C128" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -19139,10 +19139,10 @@
         <v>39131</v>
       </c>
       <c r="B129" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C129" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -19153,7 +19153,7 @@
         <v>400</v>
       </c>
       <c r="C130" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -19161,10 +19161,10 @@
         <v>11420</v>
       </c>
       <c r="B131" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C131" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -19172,10 +19172,10 @@
         <v>44111</v>
       </c>
       <c r="B132" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C132" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -19183,10 +19183,10 @@
         <v>21741</v>
       </c>
       <c r="B133" t="s">
+        <v>505</v>
+      </c>
+      <c r="C133" t="s">
         <v>506</v>
-      </c>
-      <c r="C133" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -19216,10 +19216,10 @@
         <v>5021</v>
       </c>
       <c r="B136" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C136" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -19227,10 +19227,10 @@
         <v>8646482</v>
       </c>
       <c r="B137" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C137" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -19249,10 +19249,10 @@
         <v>3921196</v>
       </c>
       <c r="B139" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C139" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -19272,13 +19272,13 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1086</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1087</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -19379,7 +19379,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D2" t="s">
         <v>197</v>
@@ -19412,7 +19412,7 @@
         <v>201</v>
       </c>
       <c r="N2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O2" t="s">
         <v>49</v>
@@ -19460,13 +19460,13 @@
         <v>0</v>
       </c>
       <c r="AD2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AE2">
         <v>1450</v>
       </c>
       <c r="AF2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AG2" s="1">
         <v>44266.452418981484</v>
@@ -19474,13 +19474,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B3">
         <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
         <v>188</v>
@@ -19581,7 +19581,7 @@
         <v>175</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D4" t="s">
         <v>171</v>
@@ -19682,7 +19682,7 @@
         <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -19783,7 +19783,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -19884,7 +19884,7 @@
         <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D7" t="s">
         <v>145</v>
@@ -19985,7 +19985,7 @@
         <v>191</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D8" t="s">
         <v>145</v>
@@ -20086,7 +20086,7 @@
         <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D9" t="s">
         <v>145</v>
@@ -20187,7 +20187,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D10" t="s">
         <v>145</v>
@@ -20288,7 +20288,7 @@
         <v>121</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -20389,7 +20389,7 @@
         <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D12" t="s">
         <v>145</v>
@@ -20490,7 +20490,7 @@
         <v>121</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
@@ -20591,7 +20591,7 @@
         <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D14" t="s">
         <v>136</v>
@@ -20692,7 +20692,7 @@
         <v>138</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D15" t="s">
         <v>145</v>
@@ -20793,7 +20793,7 @@
         <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D16" t="s">
         <v>145</v>
@@ -20888,13 +20888,13 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B17">
         <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D17" t="s">
         <v>136</v>
@@ -20927,7 +20927,7 @@
         <v>140</v>
       </c>
       <c r="N17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O17" t="s">
         <v>49</v>
@@ -20975,13 +20975,13 @@
         <v>0</v>
       </c>
       <c r="AD17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AE17">
         <v>306</v>
       </c>
       <c r="AF17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AG17" s="1">
         <v>44266.452407407407</v>
@@ -20995,7 +20995,7 @@
         <v>191</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D18" t="s">
         <v>145</v>
@@ -21096,7 +21096,7 @@
         <v>121</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D19" t="s">
         <v>145</v>
@@ -21129,7 +21129,7 @@
         <v>149</v>
       </c>
       <c r="N19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
@@ -21177,13 +21177,13 @@
         <v>0</v>
       </c>
       <c r="AD19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE19">
         <v>291</v>
       </c>
       <c r="AF19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AG19" s="1">
         <v>44266.451921296299</v>
@@ -21197,7 +21197,7 @@
         <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -21230,7 +21230,7 @@
         <v>149</v>
       </c>
       <c r="N20" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
@@ -21278,13 +21278,13 @@
         <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE20">
         <v>276</v>
       </c>
       <c r="AF20" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AG20" s="1">
         <v>44266.451782407406</v>
@@ -21298,7 +21298,7 @@
         <v>121</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D21" t="s">
         <v>145</v>
@@ -21399,7 +21399,7 @@
         <v>121</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D22" t="s">
         <v>145</v>
@@ -21500,7 +21500,7 @@
         <v>121</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D23" t="s">
         <v>145</v>
@@ -21601,7 +21601,7 @@
         <v>121</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D24" t="s">
         <v>145</v>
@@ -21696,13 +21696,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B25">
         <v>142</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D25" t="s">
         <v>136</v>
@@ -21735,7 +21735,7 @@
         <v>140</v>
       </c>
       <c r="N25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O25" t="s">
         <v>49</v>
@@ -21783,13 +21783,13 @@
         <v>0</v>
       </c>
       <c r="AD25" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AE25">
         <v>2694</v>
       </c>
       <c r="AF25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG25" s="1">
         <v>44266.449641203704</v>
@@ -21803,7 +21803,7 @@
         <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D26" t="s">
         <v>145</v>
@@ -21836,7 +21836,7 @@
         <v>149</v>
       </c>
       <c r="N26" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O26" t="s">
         <v>49</v>
@@ -21884,13 +21884,13 @@
         <v>0</v>
       </c>
       <c r="AD26" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AE26">
         <v>615</v>
       </c>
       <c r="AF26" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AG26" s="1">
         <v>44266.451041666667</v>
@@ -21898,13 +21898,13 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B27">
         <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D27" t="s">
         <v>284</v>
@@ -22005,7 +22005,7 @@
         <v>193</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D28" t="s">
         <v>284</v>
@@ -22106,7 +22106,7 @@
         <v>138</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D29" t="s">
         <v>145</v>
@@ -22207,7 +22207,7 @@
         <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D30" t="s">
         <v>145</v>
@@ -22308,7 +22308,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D31" t="s">
         <v>145</v>
@@ -22409,7 +22409,7 @@
         <v>121</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D32" t="s">
         <v>145</v>
@@ -22510,7 +22510,7 @@
         <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D33" t="s">
         <v>136</v>
@@ -22605,13 +22605,13 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B34">
         <v>152</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D34" t="s">
         <v>284</v>
@@ -22644,7 +22644,7 @@
         <v>288</v>
       </c>
       <c r="N34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
@@ -22692,13 +22692,13 @@
         <v>0</v>
       </c>
       <c r="AD34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AE34">
         <v>282</v>
       </c>
       <c r="AF34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG34" s="1">
         <v>44266.452685185184</v>
@@ -22712,7 +22712,7 @@
         <v>121</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D35" t="s">
         <v>145</v>
@@ -22813,7 +22813,7 @@
         <v>193</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D36" t="s">
         <v>145</v>
@@ -22914,7 +22914,7 @@
         <v>121</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D37" t="s">
         <v>145</v>
@@ -23015,7 +23015,7 @@
         <v>121</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D38" t="s">
         <v>145</v>
@@ -23116,7 +23116,7 @@
         <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D39" t="s">
         <v>145</v>
@@ -23217,7 +23217,7 @@
         <v>121</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D40" t="s">
         <v>145</v>
@@ -23250,7 +23250,7 @@
         <v>149</v>
       </c>
       <c r="N40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="O40" t="s">
         <v>40</v>
@@ -23298,13 +23298,13 @@
         <v>0</v>
       </c>
       <c r="AD40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE40">
         <v>162</v>
       </c>
       <c r="AF40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AG40" s="1">
         <v>44266.450520833336</v>
@@ -23312,13 +23312,13 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B41">
         <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D41" t="s">
         <v>136</v>
@@ -23351,7 +23351,7 @@
         <v>140</v>
       </c>
       <c r="N41" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="O41" t="s">
         <v>49</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="AD41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AE41">
         <v>759</v>
       </c>
       <c r="AF41" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AG41" s="1">
         <v>44266.452118055553</v>
@@ -23419,7 +23419,7 @@
         <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D42" t="s">
         <v>136</v>
@@ -23520,7 +23520,7 @@
         <v>121</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D43" t="s">
         <v>145</v>
@@ -23621,7 +23621,7 @@
         <v>122</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D44" t="s">
         <v>145</v>
@@ -23722,7 +23722,7 @@
         <v>121</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
@@ -23823,7 +23823,7 @@
         <v>121</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D46" t="s">
         <v>145</v>
@@ -23856,7 +23856,7 @@
         <v>149</v>
       </c>
       <c r="N46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O46" t="s">
         <v>40</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="AD46" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE46">
         <v>171</v>
       </c>
       <c r="AF46" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG46" s="1">
         <v>44266.451689814814</v>
@@ -23924,7 +23924,7 @@
         <v>193</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
@@ -24025,7 +24025,7 @@
         <v>122</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
@@ -24126,7 +24126,7 @@
         <v>121</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D49" t="s">
         <v>145</v>
@@ -24227,7 +24227,7 @@
         <v>121</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D50" t="s">
         <v>145</v>
@@ -24260,7 +24260,7 @@
         <v>149</v>
       </c>
       <c r="N50" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O50" t="s">
         <v>49</v>
@@ -24308,13 +24308,13 @@
         <v>0</v>
       </c>
       <c r="AD50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE50">
         <v>180</v>
       </c>
       <c r="AF50" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG50" s="1">
         <v>44266.451666666668</v>
@@ -24328,7 +24328,7 @@
         <v>121</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D51" t="s">
         <v>145</v>
@@ -24361,7 +24361,7 @@
         <v>149</v>
       </c>
       <c r="N51" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O51" t="s">
         <v>40</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="AD51" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE51">
         <v>228</v>
       </c>
       <c r="AF51" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AG51" s="1">
         <v>44266.451574074075</v>
@@ -24429,7 +24429,7 @@
         <v>121</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D52" t="s">
         <v>145</v>
@@ -24530,7 +24530,7 @@
         <v>121</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D53" t="s">
         <v>145</v>
@@ -24631,7 +24631,7 @@
         <v>121</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D54" t="s">
         <v>145</v>
@@ -24732,7 +24732,7 @@
         <v>121</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D55" t="s">
         <v>145</v>
@@ -24833,7 +24833,7 @@
         <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D56" t="s">
         <v>145</v>
@@ -24934,7 +24934,7 @@
         <v>197</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D57" t="s">
         <v>136</v>
@@ -24967,7 +24967,7 @@
         <v>140</v>
       </c>
       <c r="N57" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O57" t="s">
         <v>40</v>
@@ -25015,13 +25015,13 @@
         <v>0</v>
       </c>
       <c r="AD57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AE57">
         <v>720</v>
       </c>
       <c r="AF57" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG57" s="1">
         <v>44266.449733796297</v>
@@ -25035,7 +25035,7 @@
         <v>197</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D58" t="s">
         <v>136</v>
@@ -25068,7 +25068,7 @@
         <v>140</v>
       </c>
       <c r="N58" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O58" t="s">
         <v>40</v>
@@ -25116,13 +25116,13 @@
         <v>0</v>
       </c>
       <c r="AD58" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AE58">
         <v>720</v>
       </c>
       <c r="AF58" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG58" s="1">
         <v>44266.45040509259</v>
@@ -25136,7 +25136,7 @@
         <v>122</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D59" t="s">
         <v>145</v>
@@ -25169,7 +25169,7 @@
         <v>149</v>
       </c>
       <c r="N59" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O59" t="s">
         <v>49</v>
@@ -25217,13 +25217,13 @@
         <v>0</v>
       </c>
       <c r="AD59" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AE59">
         <v>201</v>
       </c>
       <c r="AF59" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AG59" s="1">
         <v>44266.452002314814</v>
@@ -25237,7 +25237,7 @@
         <v>121</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -25270,7 +25270,7 @@
         <v>149</v>
       </c>
       <c r="N60" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O60" t="s">
         <v>49</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="AD60" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE60">
         <v>180</v>
       </c>
       <c r="AF60" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG60" s="1">
         <v>44266.452060185184</v>
@@ -25338,7 +25338,7 @@
         <v>193</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D61" t="s">
         <v>145</v>
@@ -25439,7 +25439,7 @@
         <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D62" t="s">
         <v>145</v>
@@ -25472,7 +25472,7 @@
         <v>149</v>
       </c>
       <c r="N62" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O62" t="s">
         <v>40</v>
@@ -25520,13 +25520,13 @@
         <v>0</v>
       </c>
       <c r="AD62" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AE62">
         <v>381</v>
       </c>
       <c r="AF62" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AG62" s="1">
         <v>44266.45171296296</v>
@@ -25540,7 +25540,7 @@
         <v>134</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D63" t="s">
         <v>145</v>
@@ -25573,7 +25573,7 @@
         <v>149</v>
       </c>
       <c r="N63" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O63" t="s">
         <v>40</v>
@@ -25621,13 +25621,13 @@
         <v>0</v>
       </c>
       <c r="AD63" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AE63">
         <v>378</v>
       </c>
       <c r="AF63" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AG63" s="1">
         <v>44266.452638888892</v>
@@ -25641,7 +25641,7 @@
         <v>122</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D64" t="s">
         <v>145</v>
@@ -25674,7 +25674,7 @@
         <v>149</v>
       </c>
       <c r="N64" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O64" t="s">
         <v>49</v>
@@ -25722,13 +25722,13 @@
         <v>0</v>
       </c>
       <c r="AD64" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AE64">
         <v>192</v>
       </c>
       <c r="AF64" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AG64" s="1">
         <v>44266.449988425928</v>
@@ -25742,7 +25742,7 @@
         <v>122</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D65" t="s">
         <v>145</v>
@@ -25775,7 +25775,7 @@
         <v>149</v>
       </c>
       <c r="N65" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O65" t="s">
         <v>40</v>
@@ -25823,13 +25823,13 @@
         <v>0</v>
       </c>
       <c r="AD65" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AE65">
         <v>291</v>
       </c>
       <c r="AF65" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AG65" s="1">
         <v>44266.453182870369</v>
@@ -25843,7 +25843,7 @@
         <v>121</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D66" t="s">
         <v>145</v>
@@ -25876,7 +25876,7 @@
         <v>149</v>
       </c>
       <c r="N66" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O66" t="s">
         <v>40</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="AD66" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE66">
         <v>171</v>
       </c>
       <c r="AF66" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AG66" s="1">
         <v>44266.450439814813</v>
@@ -25944,7 +25944,7 @@
         <v>121</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D67" t="s">
         <v>145</v>
@@ -25977,7 +25977,7 @@
         <v>149</v>
       </c>
       <c r="N67" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="O67" t="s">
         <v>49</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="AD67" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE67">
         <v>180</v>
       </c>
       <c r="AF67" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AG67" s="1">
         <v>44266.450416666667</v>
@@ -26039,13 +26039,13 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B68">
         <v>152</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D68" t="s">
         <v>284</v>
@@ -26146,7 +26146,7 @@
         <v>130</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D69" t="s">
         <v>284</v>
@@ -26247,7 +26247,7 @@
         <v>122</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D70" t="s">
         <v>145</v>
@@ -26280,7 +26280,7 @@
         <v>149</v>
       </c>
       <c r="N70" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O70" t="s">
         <v>40</v>
@@ -26328,13 +26328,13 @@
         <v>0</v>
       </c>
       <c r="AD70" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AE70">
         <v>318</v>
       </c>
       <c r="AF70" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AG70" s="1">
         <v>44266.452662037038</v>
@@ -26348,7 +26348,7 @@
         <v>108</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D71" t="s">
         <v>145</v>
@@ -26381,7 +26381,7 @@
         <v>149</v>
       </c>
       <c r="N71" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O71" t="s">
         <v>40</v>
@@ -26429,13 +26429,13 @@
         <v>0</v>
       </c>
       <c r="AD71" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AE71">
         <v>339</v>
       </c>
       <c r="AF71" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AG71" s="1">
         <v>44266.452453703707</v>
@@ -26449,7 +26449,7 @@
         <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D72" t="s">
         <v>145</v>
@@ -26482,7 +26482,7 @@
         <v>149</v>
       </c>
       <c r="N72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O72" t="s">
         <v>49</v>
@@ -26530,13 +26530,13 @@
         <v>0</v>
       </c>
       <c r="AD72" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE72">
         <v>327</v>
       </c>
       <c r="AF72" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AG72" s="1">
         <v>44266.453182870369</v>
@@ -26550,7 +26550,7 @@
         <v>193</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D73" t="s">
         <v>145</v>
@@ -26583,7 +26583,7 @@
         <v>149</v>
       </c>
       <c r="N73" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O73" t="s">
         <v>40</v>
@@ -26631,13 +26631,13 @@
         <v>0</v>
       </c>
       <c r="AD73" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AE73">
         <v>249</v>
       </c>
       <c r="AF73" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG73" s="1">
         <v>44266.451643518521</v>
@@ -26651,7 +26651,7 @@
         <v>121</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D74" t="s">
         <v>145</v>
@@ -26752,7 +26752,7 @@
         <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D75" t="s">
         <v>145</v>
@@ -26853,7 +26853,7 @@
         <v>193</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D76" t="s">
         <v>145</v>
@@ -26954,7 +26954,7 @@
         <v>193</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D77" t="s">
         <v>284</v>
@@ -26987,7 +26987,7 @@
         <v>288</v>
       </c>
       <c r="N77" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O77" t="s">
         <v>40</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="AD77" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AE77">
         <v>339</v>
       </c>
       <c r="AF77" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG77" s="1">
         <v>44266.452291666668</v>
@@ -27055,7 +27055,7 @@
         <v>121</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D78" t="s">
         <v>145</v>
@@ -27088,7 +27088,7 @@
         <v>149</v>
       </c>
       <c r="N78" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O78" t="s">
         <v>49</v>
@@ -27136,13 +27136,13 @@
         <v>0</v>
       </c>
       <c r="AD78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AE78">
         <v>135</v>
       </c>
       <c r="AF78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AG78" s="1">
         <v>44266.449814814812</v>
@@ -27150,13 +27150,13 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B79">
         <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D79" t="s">
         <v>284</v>
@@ -27189,7 +27189,7 @@
         <v>288</v>
       </c>
       <c r="N79" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O79" t="s">
         <v>49</v>
@@ -27237,13 +27237,13 @@
         <v>0</v>
       </c>
       <c r="AD79" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AE79">
         <v>615</v>
       </c>
       <c r="AF79" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG79" s="1">
         <v>44266.452453703707</v>
@@ -27251,13 +27251,13 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B80">
         <v>152</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D80" t="s">
         <v>188</v>
@@ -27290,7 +27290,7 @@
         <v>190</v>
       </c>
       <c r="N80" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O80" t="s">
         <v>40</v>
@@ -27338,13 +27338,13 @@
         <v>0</v>
       </c>
       <c r="AD80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AE80">
         <v>1267</v>
       </c>
       <c r="AF80" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG80" s="1">
         <v>44266.451365740744</v>
@@ -27358,7 +27358,7 @@
         <v>122</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D81" t="s">
         <v>145</v>
@@ -27459,7 +27459,7 @@
         <v>193</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D82" t="s">
         <v>145</v>
@@ -27492,7 +27492,7 @@
         <v>149</v>
       </c>
       <c r="N82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="O82" t="s">
         <v>40</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="AD82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AE82">
         <v>300</v>
       </c>
       <c r="AF82" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG82" s="1">
         <v>44266.450821759259</v>
@@ -27560,7 +27560,7 @@
         <v>121</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D83" t="s">
         <v>145</v>
@@ -27661,7 +27661,7 @@
         <v>122</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D84" t="s">
         <v>145</v>
@@ -27694,7 +27694,7 @@
         <v>149</v>
       </c>
       <c r="N84" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="O84" t="s">
         <v>40</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="AD84" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AE84">
         <v>318</v>
       </c>
       <c r="AF84" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AG84" s="1">
         <v>44266.452268518522</v>
@@ -27756,13 +27756,13 @@
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B85">
         <v>152</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D85" t="s">
         <v>284</v>
@@ -27795,7 +27795,7 @@
         <v>288</v>
       </c>
       <c r="N85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O85" t="s">
         <v>40</v>
@@ -27843,13 +27843,13 @@
         <v>0</v>
       </c>
       <c r="AD85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AE85">
         <v>1713</v>
       </c>
       <c r="AF85" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG85" s="1">
         <v>44266.451724537037</v>
@@ -27857,13 +27857,13 @@
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B86">
         <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D86" t="s">
         <v>284</v>
@@ -27896,7 +27896,7 @@
         <v>288</v>
       </c>
       <c r="N86" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O86" t="s">
         <v>40</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="AD86" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AE86">
         <v>1713</v>
       </c>
       <c r="AF86" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG86" s="1">
         <v>44266.449756944443</v>
@@ -27964,7 +27964,7 @@
         <v>122</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D87" t="s">
         <v>145</v>
@@ -27997,7 +27997,7 @@
         <v>149</v>
       </c>
       <c r="N87" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O87" t="s">
         <v>40</v>
@@ -28045,13 +28045,13 @@
         <v>0</v>
       </c>
       <c r="AD87" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AE87">
         <v>336</v>
       </c>
       <c r="AF87" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AG87" s="1">
         <v>44266.451296296298</v>
@@ -28065,7 +28065,7 @@
         <v>178</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D88" t="s">
         <v>136</v>
@@ -28166,7 +28166,7 @@
         <v>197</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D89" t="s">
         <v>171</v>
@@ -28199,7 +28199,7 @@
         <v>175</v>
       </c>
       <c r="N89" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O89" t="s">
         <v>40</v>
@@ -28247,13 +28247,13 @@
         <v>0</v>
       </c>
       <c r="AD89" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AE89">
         <v>1205</v>
       </c>
       <c r="AF89" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AG89" s="1">
         <v>44266.45208333333</v>
@@ -28267,7 +28267,7 @@
         <v>121</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D90" t="s">
         <v>145</v>
@@ -28368,7 +28368,7 @@
         <v>193</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D91" t="s">
         <v>145</v>
@@ -28401,7 +28401,7 @@
         <v>149</v>
       </c>
       <c r="N91" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O91" t="s">
         <v>40</v>
@@ -28449,13 +28449,13 @@
         <v>0</v>
       </c>
       <c r="AD91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AE91">
         <v>318</v>
       </c>
       <c r="AF91" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG91" s="1">
         <v>44266.453032407408</v>
@@ -28469,7 +28469,7 @@
         <v>127</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D92" t="s">
         <v>197</v>
@@ -28570,7 +28570,7 @@
         <v>127</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D93" t="s">
         <v>197</v>
@@ -28671,7 +28671,7 @@
         <v>127</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D94" t="s">
         <v>272</v>
@@ -28772,7 +28772,7 @@
         <v>178</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D95" t="s">
         <v>136</v>
@@ -28805,7 +28805,7 @@
         <v>140</v>
       </c>
       <c r="N95" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O95" t="s">
         <v>49</v>
@@ -28853,13 +28853,13 @@
         <v>0</v>
       </c>
       <c r="AD95" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AE95">
         <v>2084</v>
       </c>
       <c r="AF95" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AG95" s="1">
         <v>44266.45008101852</v>
@@ -28873,7 +28873,7 @@
         <v>134</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D96" t="s">
         <v>145</v>
@@ -28968,13 +28968,13 @@
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B97">
         <v>141</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D97" t="s">
         <v>453</v>
@@ -29007,7 +29007,7 @@
         <v>457</v>
       </c>
       <c r="N97" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="O97" t="s">
         <v>40</v>
@@ -29055,13 +29055,13 @@
         <v>0</v>
       </c>
       <c r="AD97" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AE97">
         <v>2529</v>
       </c>
       <c r="AF97" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AG97" s="1">
         <v>44266.451307870368</v>
@@ -29075,7 +29075,7 @@
         <v>121</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D98" t="s">
         <v>145</v>
@@ -29108,7 +29108,7 @@
         <v>149</v>
       </c>
       <c r="N98" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O98" t="s">
         <v>49</v>
@@ -29156,13 +29156,13 @@
         <v>0</v>
       </c>
       <c r="AD98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AE98">
         <v>258</v>
       </c>
       <c r="AF98" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AG98" s="1">
         <v>44266.449965277781</v>
@@ -29188,13 +29188,13 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -29286,13 +29286,13 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B2">
         <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -29328,7 +29328,7 @@
         <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="P2" t="s">
         <v>40</v>
@@ -29376,10 +29376,10 @@
         <v>0</v>
       </c>
       <c r="AE2" t="s">
+        <v>908</v>
+      </c>
+      <c r="AF2" t="s">
         <v>909</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>910</v>
       </c>
       <c r="AG2" s="1">
         <v>44266.450856481482</v>
@@ -29387,13 +29387,13 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B3">
         <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D3" t="s">
         <v>82</v>
@@ -29429,7 +29429,7 @@
         <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P3" t="s">
         <v>40</v>
@@ -29477,10 +29477,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="s">
+        <v>911</v>
+      </c>
+      <c r="AF3" t="s">
         <v>912</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>913</v>
       </c>
       <c r="AG3" s="1">
         <v>44266.450937499998</v>
@@ -29488,13 +29488,13 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B4">
         <v>158</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D4" t="s">
         <v>82</v>
@@ -29530,7 +29530,7 @@
         <v>86</v>
       </c>
       <c r="O4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P4" t="s">
         <v>49</v>
@@ -29578,10 +29578,10 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF4" t="s">
         <v>590</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>591</v>
       </c>
       <c r="AG4" s="1">
         <v>44266.450520833336</v>
@@ -29589,13 +29589,13 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B5">
         <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
@@ -29631,7 +29631,7 @@
         <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P5" t="s">
         <v>40</v>
@@ -29679,10 +29679,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="s">
+        <v>685</v>
+      </c>
+      <c r="AF5" t="s">
         <v>686</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>687</v>
       </c>
       <c r="AG5" s="1">
         <v>44266.452974537038</v>
@@ -29690,13 +29690,13 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B6">
         <v>163</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D6" t="s">
         <v>152</v>
@@ -29729,10 +29729,10 @@
         <v>156</v>
       </c>
       <c r="N6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -29780,10 +29780,10 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
+        <v>682</v>
+      </c>
+      <c r="AF6" t="s">
         <v>683</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>684</v>
       </c>
       <c r="AG6" s="1">
         <v>44266.449918981481</v>
@@ -29797,7 +29797,7 @@
         <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D7" t="s">
         <v>188</v>
@@ -29833,7 +29833,7 @@
         <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="P7" t="s">
         <v>40</v>
@@ -29881,21 +29881,21 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C8" s="13">
         <v>147</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>160</v>
@@ -29985,16 +29985,16 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C9" s="13">
         <v>148</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>166</v>
@@ -30084,16 +30084,16 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C10" s="13">
         <v>149</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>166</v>
@@ -30183,16 +30183,16 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C11" s="13">
         <v>150</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>160</v>
@@ -30282,16 +30282,16 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C12" s="13">
         <v>148</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>145</v>
@@ -30327,7 +30327,7 @@
         <v>149</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>49</v>
@@ -30375,7 +30375,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG12" s="12"/>
     </row>
@@ -30399,13 +30399,13 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -30503,10 +30503,10 @@
         <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E2" s="4">
         <v>546</v>
@@ -30515,31 +30515,31 @@
         <v>114</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>974</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>975</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>976</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>977</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>978</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>40</v>
@@ -30587,10 +30587,10 @@
         <v>0</v>
       </c>
       <c r="AE2" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -30601,7 +30601,7 @@
         <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D3" t="s">
         <v>284</v>
@@ -30699,7 +30699,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D4" t="s">
         <v>272</v>
@@ -30735,7 +30735,7 @@
         <v>276</v>
       </c>
       <c r="O4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="P4" t="s">
         <v>49</v>
@@ -30783,10 +30783,10 @@
         <v>0</v>
       </c>
       <c r="AE4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -30797,7 +30797,7 @@
         <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D5" t="s">
         <v>272</v>
@@ -30895,7 +30895,7 @@
         <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D6" t="s">
         <v>145</v>
@@ -30931,7 +30931,7 @@
         <v>149</v>
       </c>
       <c r="O6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="P6" t="s">
         <v>49</v>
@@ -30979,21 +30979,21 @@
         <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AF6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B7">
         <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
         <v>284</v>
@@ -31029,7 +31029,7 @@
         <v>288</v>
       </c>
       <c r="O7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P7" t="s">
         <v>49</v>
@@ -31077,21 +31077,21 @@
         <v>0</v>
       </c>
       <c r="AE7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AF7" t="s">
         <v>532</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B8">
         <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="s">
         <v>284</v>
@@ -31127,7 +31127,7 @@
         <v>288</v>
       </c>
       <c r="O8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P8" t="s">
         <v>49</v>
@@ -31175,21 +31175,21 @@
         <v>0</v>
       </c>
       <c r="AE8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B9">
         <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D9" t="s">
         <v>284</v>
@@ -31281,13 +31281,13 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B10">
         <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D10" t="s">
         <v>260</v>
@@ -31323,7 +31323,7 @@
         <v>264</v>
       </c>
       <c r="O10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="P10" t="s">
         <v>40</v>
@@ -31371,21 +31371,21 @@
         <v>0</v>
       </c>
       <c r="AE10" t="s">
+        <v>931</v>
+      </c>
+      <c r="AF10" t="s">
         <v>932</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B11">
         <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D11" t="s">
         <v>260</v>
@@ -31421,7 +31421,7 @@
         <v>264</v>
       </c>
       <c r="O11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
@@ -31469,10 +31469,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="s">
+        <v>928</v>
+      </c>
+      <c r="AF11" t="s">
         <v>929</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -31483,7 +31483,7 @@
         <v>174</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D12" t="s">
         <v>354</v>
@@ -31593,15 +31593,15 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
@@ -31693,13 +31693,13 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D2">
         <v>143</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F2" t="s">
         <v>136</v>
@@ -31735,7 +31735,7 @@
         <v>140</v>
       </c>
       <c r="Q2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R2" t="s">
         <v>49</v>
@@ -31783,10 +31783,10 @@
         <v>0</v>
       </c>
       <c r="AG2" t="s">
+        <v>859</v>
+      </c>
+      <c r="AH2" t="s">
         <v>860</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -31799,7 +31799,7 @@
         <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F3" t="s">
         <v>152</v>
@@ -31897,7 +31897,7 @@
         <v>125</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F4" t="s">
         <v>354</v>
@@ -31995,7 +31995,7 @@
         <v>126</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F5" t="s">
         <v>171</v>
@@ -32031,7 +32031,7 @@
         <v>175</v>
       </c>
       <c r="Q5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R5" t="s">
         <v>40</v>
@@ -32079,10 +32079,10 @@
         <v>0</v>
       </c>
       <c r="AG5" t="s">
+        <v>792</v>
+      </c>
+      <c r="AH5" t="s">
         <v>793</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -32093,7 +32093,7 @@
         <v>126</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F6" t="s">
         <v>284</v>
@@ -32191,7 +32191,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F7" t="s">
         <v>284</v>
@@ -32289,7 +32289,7 @@
         <v>130</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F8" t="s">
         <v>284</v>
@@ -32387,7 +32387,7 @@
         <v>133</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
@@ -32479,13 +32479,13 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D10">
         <v>142</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F10" t="s">
         <v>284</v>
@@ -32521,7 +32521,7 @@
         <v>288</v>
       </c>
       <c r="Q10" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R10" t="s">
         <v>40</v>
@@ -32569,21 +32569,21 @@
         <v>0</v>
       </c>
       <c r="AG10" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH10" t="s">
         <v>614</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D11">
         <v>142</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F11" t="s">
         <v>136</v>
@@ -32619,7 +32619,7 @@
         <v>140</v>
       </c>
       <c r="Q11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R11" t="s">
         <v>40</v>
@@ -32667,24 +32667,24 @@
         <v>0</v>
       </c>
       <c r="AG11" t="s">
+        <v>768</v>
+      </c>
+      <c r="AH11" t="s">
         <v>769</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D12">
         <v>153</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G12">
         <v>366</v>
@@ -32702,22 +32702,22 @@
         <v>33</v>
       </c>
       <c r="L12" t="s">
+        <v>569</v>
+      </c>
+      <c r="M12" t="s">
         <v>570</v>
-      </c>
-      <c r="M12" t="s">
-        <v>571</v>
       </c>
       <c r="N12" t="s">
         <v>36</v>
       </c>
       <c r="O12" t="s">
+        <v>571</v>
+      </c>
+      <c r="P12" t="s">
         <v>572</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>573</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>574</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -32765,10 +32765,10 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AH12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -32779,7 +32779,7 @@
         <v>197</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F13" t="s">
         <v>284</v>
@@ -32877,7 +32877,7 @@
         <v>210</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F14" t="s">
         <v>121</v>
@@ -32969,16 +32969,16 @@
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B15" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C15" s="11">
         <v>101</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E15" t="s">
         <v>72</v>
@@ -33014,7 +33014,7 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
@@ -33062,7 +33062,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BA8F15-ABA0-464E-A8E9-963F8FBA1106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC1686-30C4-A243-B4E6-BD2BE73AB6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="2160" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="12360" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4663" uniqueCount="1264">
   <si>
     <t>Record_ID</t>
   </si>
@@ -3621,18 +3621,6 @@
     <t>proto.161-MacEug</t>
   </si>
   <si>
-    <t>proto.162-GymLea</t>
-  </si>
-  <si>
-    <t>proto.163-PhaCin</t>
-  </si>
-  <si>
-    <t>proto.164-MacEug</t>
-  </si>
-  <si>
-    <t>proto.165-PhaCin</t>
-  </si>
-  <si>
     <t>proto.166-MacEug</t>
   </si>
   <si>
@@ -3792,9 +3780,6 @@
     <t>proto.192-CteSoc</t>
   </si>
   <si>
-    <t>proto.193-CteSo</t>
-  </si>
-  <si>
     <t>proto.2-MusSpr</t>
   </si>
   <si>
@@ -3823,6 +3808,15 @@
   </si>
   <si>
     <t>proto.158-Macropus</t>
+  </si>
+  <si>
+    <t>proto.162-Gymnobelideus</t>
+  </si>
+  <si>
+    <t>proto.165-Phascolarctos</t>
+  </si>
+  <si>
+    <t>proto.193-CteSoc</t>
   </si>
 </sst>
 </file>
@@ -4747,10 +4741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:AF129"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B99" sqref="A1:AF128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4865,7 +4859,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -4963,7 +4957,7 @@
         <v>952</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -7707,7 +7701,7 @@
         <v>1127</v>
       </c>
       <c r="B31" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C31" s="11">
         <v>127</v>
@@ -9079,7 +9073,7 @@
         <v>1141</v>
       </c>
       <c r="B45" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="C45" s="11">
         <v>139</v>
@@ -9177,7 +9171,7 @@
         <v>1142</v>
       </c>
       <c r="B46" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="C46" s="11">
         <v>140</v>
@@ -9667,7 +9661,7 @@
         <v>1147</v>
       </c>
       <c r="B51" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="C51" s="11">
         <v>145</v>
@@ -9765,7 +9759,7 @@
         <v>1153</v>
       </c>
       <c r="B52" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="C52" s="11">
         <v>150</v>
@@ -9863,7 +9857,7 @@
         <v>1154</v>
       </c>
       <c r="B53" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C53" s="11">
         <v>151</v>
@@ -9961,7 +9955,7 @@
         <v>1155</v>
       </c>
       <c r="B54" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C54" s="11">
         <v>151</v>
@@ -10255,7 +10249,7 @@
         <v>1158</v>
       </c>
       <c r="B57" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="C57" s="11">
         <v>154</v>
@@ -10353,7 +10347,7 @@
         <v>1159</v>
       </c>
       <c r="B58" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="C58" s="11">
         <v>155</v>
@@ -10451,7 +10445,7 @@
         <v>1161</v>
       </c>
       <c r="B59" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C59" s="11">
         <v>157</v>
@@ -10549,7 +10543,7 @@
         <v>1162</v>
       </c>
       <c r="B60" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="C60" s="11">
         <v>158</v>
@@ -10642,7 +10636,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1163</v>
       </c>
@@ -10742,25 +10736,25 @@
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B62" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C62" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>1073</v>
+        <v>1045</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>260</v>
       </c>
       <c r="F62">
-        <v>2766</v>
+        <v>3018</v>
       </c>
       <c r="G62">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H62" t="s">
         <v>31</v>
@@ -10772,93 +10766,93 @@
         <v>73</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="L62" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="M62" t="s">
         <v>36</v>
       </c>
       <c r="N62" t="s">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="O62" t="s">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="P62" t="s">
-        <v>944</v>
+        <v>591</v>
       </c>
       <c r="Q62" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R62">
-        <v>394492</v>
+        <v>51199</v>
       </c>
       <c r="S62">
-        <v>397257</v>
+        <v>54216</v>
       </c>
       <c r="T62" t="s">
         <v>59</v>
       </c>
       <c r="U62">
-        <v>602</v>
+        <v>475</v>
       </c>
       <c r="V62">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="W62">
-        <v>1542</v>
+        <v>1485</v>
       </c>
       <c r="X62">
-        <v>2066</v>
+        <v>2525</v>
       </c>
       <c r="Y62">
-        <v>176</v>
+        <v>351</v>
       </c>
       <c r="Z62">
-        <v>227</v>
+        <v>414</v>
       </c>
       <c r="AA62">
-        <v>75</v>
+        <v>72.08</v>
       </c>
       <c r="AB62">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="AD62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE62">
         <v>0</v>
       </c>
       <c r="AF62" t="s">
-        <v>945</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B63" t="s">
-        <v>1197</v>
+        <v>1261</v>
       </c>
       <c r="C63" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>1045</v>
+        <v>1074</v>
       </c>
       <c r="E63" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="F63">
-        <v>3018</v>
+        <v>2965</v>
       </c>
       <c r="G63">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s">
         <v>31</v>
@@ -10870,55 +10864,55 @@
         <v>73</v>
       </c>
       <c r="K63" t="s">
-        <v>261</v>
+        <v>122</v>
       </c>
       <c r="L63" t="s">
-        <v>262</v>
+        <v>123</v>
       </c>
       <c r="M63" t="s">
         <v>36</v>
       </c>
       <c r="N63" t="s">
-        <v>263</v>
+        <v>124</v>
       </c>
       <c r="O63" t="s">
-        <v>264</v>
+        <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>591</v>
+        <v>915</v>
       </c>
       <c r="Q63" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R63">
-        <v>51199</v>
+        <v>232572</v>
       </c>
       <c r="S63">
-        <v>54216</v>
+        <v>235536</v>
       </c>
       <c r="T63" t="s">
         <v>59</v>
       </c>
       <c r="U63">
-        <v>475</v>
+        <v>329</v>
       </c>
       <c r="V63">
-        <v>779</v>
+        <v>965</v>
       </c>
       <c r="W63">
-        <v>1485</v>
+        <v>1025</v>
       </c>
       <c r="X63">
-        <v>2525</v>
+        <v>2962</v>
       </c>
       <c r="Y63">
-        <v>351</v>
+        <v>646</v>
       </c>
       <c r="Z63">
-        <v>414</v>
+        <v>1138</v>
       </c>
       <c r="AA63">
-        <v>72.08</v>
+        <v>91.641000000000005</v>
       </c>
       <c r="AB63">
         <v>0</v>
@@ -10927,36 +10921,36 @@
         <v>1</v>
       </c>
       <c r="AD63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE63">
         <v>0</v>
       </c>
       <c r="AF63" t="s">
-        <v>592</v>
+        <v>916</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B64" t="s">
-        <v>1198</v>
+        <v>984</v>
       </c>
       <c r="C64" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="F64">
-        <v>2965</v>
+        <v>2892</v>
       </c>
       <c r="G64">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
         <v>31</v>
@@ -10968,55 +10962,55 @@
         <v>73</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="L64" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="M64" t="s">
         <v>36</v>
       </c>
       <c r="N64" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="O64" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="P64" t="s">
-        <v>915</v>
+        <v>594</v>
       </c>
       <c r="Q64" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R64">
-        <v>232572</v>
+        <v>48800</v>
       </c>
       <c r="S64">
-        <v>235536</v>
+        <v>51691</v>
       </c>
       <c r="T64" t="s">
         <v>59</v>
       </c>
       <c r="U64">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="V64">
-        <v>965</v>
+        <v>692</v>
       </c>
       <c r="W64">
-        <v>1025</v>
+        <v>1173</v>
       </c>
       <c r="X64">
-        <v>2962</v>
+        <v>2114</v>
       </c>
       <c r="Y64">
-        <v>646</v>
+        <v>326</v>
       </c>
       <c r="Z64">
-        <v>1138</v>
+        <v>355</v>
       </c>
       <c r="AA64">
-        <v>91.641000000000005</v>
+        <v>61.35</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -11031,30 +11025,30 @@
         <v>0</v>
       </c>
       <c r="AF64" t="s">
-        <v>916</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B65" t="s">
-        <v>1199</v>
+        <v>982</v>
       </c>
       <c r="C65" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>1046</v>
+        <v>1077</v>
       </c>
       <c r="E65" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="F65">
-        <v>2892</v>
+        <v>2556</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H65" t="s">
         <v>31</v>
@@ -11066,55 +11060,55 @@
         <v>73</v>
       </c>
       <c r="K65" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="L65" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="M65" t="s">
         <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="O65" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="P65" t="s">
-        <v>594</v>
+        <v>932</v>
       </c>
       <c r="Q65" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R65">
-        <v>48800</v>
+        <v>15685</v>
       </c>
       <c r="S65">
-        <v>51691</v>
+        <v>18240</v>
       </c>
       <c r="T65" t="s">
         <v>59</v>
       </c>
       <c r="U65">
-        <v>385</v>
+        <v>208</v>
       </c>
       <c r="V65">
-        <v>692</v>
+        <v>629</v>
       </c>
       <c r="W65">
-        <v>1173</v>
+        <v>1282</v>
       </c>
       <c r="X65">
-        <v>2114</v>
+        <v>2553</v>
       </c>
       <c r="Y65">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="Z65">
-        <v>355</v>
+        <v>880</v>
       </c>
       <c r="AA65">
-        <v>61.35</v>
+        <v>99.528000000000006</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -11123,36 +11117,36 @@
         <v>1</v>
       </c>
       <c r="AD65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE65">
         <v>0</v>
       </c>
       <c r="AF65" t="s">
-        <v>595</v>
+        <v>933</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B66" t="s">
-        <v>1200</v>
+        <v>1262</v>
       </c>
       <c r="C66" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="F66">
-        <v>2556</v>
+        <v>1472</v>
       </c>
       <c r="G66">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
         <v>31</v>
@@ -11164,55 +11158,55 @@
         <v>73</v>
       </c>
       <c r="K66" t="s">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="L66" t="s">
-        <v>262</v>
+        <v>75</v>
       </c>
       <c r="M66" t="s">
         <v>36</v>
       </c>
       <c r="N66" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="O66" t="s">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="P66" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="Q66" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R66">
-        <v>15685</v>
+        <v>7627093</v>
       </c>
       <c r="S66">
-        <v>18240</v>
+        <v>7628564</v>
       </c>
       <c r="T66" t="s">
         <v>59</v>
       </c>
       <c r="U66">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="V66">
-        <v>629</v>
+        <v>485</v>
       </c>
       <c r="W66">
-        <v>1282</v>
+        <v>690</v>
       </c>
       <c r="X66">
-        <v>2553</v>
+        <v>1469</v>
       </c>
       <c r="Y66">
-        <v>424</v>
+        <v>260</v>
       </c>
       <c r="Z66">
-        <v>880</v>
+        <v>508</v>
       </c>
       <c r="AA66">
-        <v>99.528000000000006</v>
+        <v>98.076999999999998</v>
       </c>
       <c r="AB66">
         <v>0</v>
@@ -11221,36 +11215,36 @@
         <v>1</v>
       </c>
       <c r="AD66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE66">
         <v>0</v>
       </c>
       <c r="AF66" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B67" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C67" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E67" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="F67">
-        <v>1472</v>
+        <v>294</v>
       </c>
       <c r="G67">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H67" t="s">
         <v>31</v>
@@ -11262,93 +11256,93 @@
         <v>73</v>
       </c>
       <c r="K67" t="s">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="M67" t="s">
         <v>36</v>
       </c>
       <c r="N67" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="O67" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="P67" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="Q67" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R67">
-        <v>7627093</v>
+        <v>10393</v>
       </c>
       <c r="S67">
-        <v>7628564</v>
+        <v>10686</v>
       </c>
       <c r="T67" t="s">
         <v>59</v>
       </c>
       <c r="U67">
-        <v>230</v>
+        <v>399</v>
       </c>
       <c r="V67">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="W67">
-        <v>690</v>
+        <v>1</v>
       </c>
       <c r="X67">
-        <v>1469</v>
+        <v>294</v>
       </c>
       <c r="Y67">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="Z67">
-        <v>508</v>
+        <v>121</v>
       </c>
       <c r="AA67">
-        <v>98.076999999999998</v>
+        <v>61.223999999999997</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AD67">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE67">
         <v>0</v>
       </c>
       <c r="AF67" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1170</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C68" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>1080</v>
+        <v>989</v>
       </c>
       <c r="E68" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="F68">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="G68">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H68" t="s">
         <v>31</v>
@@ -11360,61 +11354,61 @@
         <v>73</v>
       </c>
       <c r="K68" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="L68" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="M68" t="s">
         <v>36</v>
       </c>
       <c r="N68" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="O68" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>941</v>
+        <v>87</v>
       </c>
       <c r="Q68" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R68">
-        <v>10393</v>
+        <v>5325581</v>
       </c>
       <c r="S68">
-        <v>10686</v>
+        <v>5325922</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="U68">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="V68">
-        <v>496</v>
+        <v>114</v>
       </c>
       <c r="W68">
         <v>1</v>
       </c>
       <c r="X68">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="Y68">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="Z68">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="AA68">
-        <v>61.223999999999997</v>
+        <v>100</v>
       </c>
       <c r="AB68">
-        <v>8.73</v>
+        <v>4.82</v>
       </c>
       <c r="AC68">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AD68">
         <v>0</v>
@@ -11423,66 +11417,66 @@
         <v>0</v>
       </c>
       <c r="AF68" t="s">
-        <v>942</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>840</v>
       </c>
       <c r="B69" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C69" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>989</v>
+        <v>1061</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>272</v>
       </c>
       <c r="F69">
-        <v>342</v>
+        <v>3832</v>
       </c>
       <c r="G69">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
         <v>31</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="L69" t="s">
-        <v>84</v>
+        <v>274</v>
       </c>
       <c r="M69" t="s">
         <v>36</v>
       </c>
       <c r="N69" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="O69" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="P69" t="s">
-        <v>87</v>
+        <v>839</v>
       </c>
       <c r="Q69" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R69">
-        <v>5325581</v>
+        <v>11313</v>
       </c>
       <c r="S69">
-        <v>5325922</v>
+        <v>15144</v>
       </c>
       <c r="T69" t="s">
         <v>41</v>
@@ -11491,28 +11485,28 @@
         <v>1</v>
       </c>
       <c r="V69">
-        <v>114</v>
+        <v>1277</v>
       </c>
       <c r="W69">
         <v>1</v>
       </c>
       <c r="X69">
-        <v>342</v>
+        <v>3831</v>
       </c>
       <c r="Y69">
-        <v>114</v>
+        <v>1277</v>
       </c>
       <c r="Z69">
-        <v>228</v>
+        <v>2113</v>
       </c>
       <c r="AA69">
         <v>100</v>
       </c>
       <c r="AB69">
-        <v>4.82</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="AD69">
         <v>0</v>
@@ -11521,66 +11515,66 @@
         <v>0</v>
       </c>
       <c r="AF69" t="s">
-        <v>80</v>
+        <v>841</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>840</v>
+        <v>879</v>
       </c>
       <c r="B70" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C70" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="E70" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="F70">
-        <v>3832</v>
+        <v>444</v>
       </c>
       <c r="G70">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="H70" t="s">
         <v>31</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J70" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K70" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="L70" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M70" t="s">
         <v>36</v>
       </c>
       <c r="N70" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="O70" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="P70" t="s">
-        <v>839</v>
+        <v>878</v>
       </c>
       <c r="Q70" t="s">
         <v>40</v>
       </c>
       <c r="R70">
-        <v>11313</v>
+        <v>343</v>
       </c>
       <c r="S70">
-        <v>15144</v>
+        <v>786</v>
       </c>
       <c r="T70" t="s">
         <v>41</v>
@@ -11589,28 +11583,28 @@
         <v>1</v>
       </c>
       <c r="V70">
-        <v>1277</v>
+        <v>148</v>
       </c>
       <c r="W70">
         <v>1</v>
       </c>
       <c r="X70">
-        <v>3831</v>
+        <v>444</v>
       </c>
       <c r="Y70">
-        <v>1277</v>
+        <v>148</v>
       </c>
       <c r="Z70">
-        <v>2113</v>
+        <v>251</v>
       </c>
       <c r="AA70">
         <v>100</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>4.58</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -11619,66 +11613,66 @@
         <v>0</v>
       </c>
       <c r="AF70" t="s">
-        <v>841</v>
+        <v>876</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>879</v>
+        <v>606</v>
       </c>
       <c r="B71" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C71" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="E71" t="s">
-        <v>260</v>
+        <v>601</v>
       </c>
       <c r="F71">
-        <v>444</v>
+        <v>3373</v>
       </c>
       <c r="G71">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K71" t="s">
-        <v>261</v>
+        <v>569</v>
       </c>
       <c r="L71" t="s">
-        <v>262</v>
+        <v>602</v>
       </c>
       <c r="M71" t="s">
         <v>36</v>
       </c>
       <c r="N71" t="s">
-        <v>263</v>
+        <v>603</v>
       </c>
       <c r="O71" t="s">
-        <v>264</v>
+        <v>604</v>
       </c>
       <c r="P71" t="s">
-        <v>878</v>
+        <v>605</v>
       </c>
       <c r="Q71" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R71">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="S71">
-        <v>786</v>
+        <v>3728</v>
       </c>
       <c r="T71" t="s">
         <v>41</v>
@@ -11687,28 +11681,28 @@
         <v>1</v>
       </c>
       <c r="V71">
-        <v>148</v>
+        <v>1124</v>
       </c>
       <c r="W71">
         <v>1</v>
       </c>
       <c r="X71">
-        <v>444</v>
+        <v>3372</v>
       </c>
       <c r="Y71">
-        <v>148</v>
+        <v>1124</v>
       </c>
       <c r="Z71">
-        <v>251</v>
+        <v>2085</v>
       </c>
       <c r="AA71">
         <v>100</v>
       </c>
       <c r="AB71">
-        <v>4.58</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="AD71">
         <v>0</v>
@@ -11717,66 +11711,66 @@
         <v>0</v>
       </c>
       <c r="AF71" t="s">
-        <v>876</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>606</v>
+        <v>694</v>
       </c>
       <c r="B72" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="C72" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="E72" t="s">
-        <v>601</v>
+        <v>62</v>
       </c>
       <c r="F72">
-        <v>3373</v>
+        <v>2493</v>
       </c>
       <c r="G72">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="H72" t="s">
         <v>31</v>
       </c>
       <c r="I72" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J72" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="K72" t="s">
-        <v>569</v>
+        <v>65</v>
       </c>
       <c r="L72" t="s">
-        <v>602</v>
+        <v>66</v>
       </c>
       <c r="M72" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N72" t="s">
-        <v>603</v>
+        <v>67</v>
       </c>
       <c r="O72" t="s">
-        <v>604</v>
+        <v>692</v>
       </c>
       <c r="P72" t="s">
-        <v>605</v>
+        <v>693</v>
       </c>
       <c r="Q72" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R72">
-        <v>356</v>
+        <v>352564249</v>
       </c>
       <c r="S72">
-        <v>3728</v>
+        <v>352566741</v>
       </c>
       <c r="T72" t="s">
         <v>41</v>
@@ -11785,19 +11779,19 @@
         <v>1</v>
       </c>
       <c r="V72">
-        <v>1124</v>
+        <v>831</v>
       </c>
       <c r="W72">
         <v>1</v>
       </c>
       <c r="X72">
-        <v>3372</v>
+        <v>2493</v>
       </c>
       <c r="Y72">
-        <v>1124</v>
+        <v>831</v>
       </c>
       <c r="Z72">
-        <v>2085</v>
+        <v>1583</v>
       </c>
       <c r="AA72">
         <v>100</v>
@@ -11815,27 +11809,27 @@
         <v>0</v>
       </c>
       <c r="AF72" t="s">
-        <v>607</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>694</v>
+        <v>626</v>
       </c>
       <c r="B73" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="C73" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E73" t="s">
         <v>62</v>
       </c>
       <c r="F73">
-        <v>2493</v>
+        <v>486</v>
       </c>
       <c r="G73">
         <v>5</v>
@@ -11862,19 +11856,19 @@
         <v>67</v>
       </c>
       <c r="O73" t="s">
-        <v>692</v>
+        <v>624</v>
       </c>
       <c r="P73" t="s">
-        <v>693</v>
+        <v>625</v>
       </c>
       <c r="Q73" t="s">
         <v>40</v>
       </c>
       <c r="R73">
-        <v>352564249</v>
+        <v>341710146</v>
       </c>
       <c r="S73">
-        <v>352566741</v>
+        <v>341710631</v>
       </c>
       <c r="T73" t="s">
         <v>41</v>
@@ -11883,28 +11877,28 @@
         <v>1</v>
       </c>
       <c r="V73">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="W73">
         <v>1</v>
       </c>
       <c r="X73">
-        <v>2493</v>
+        <v>486</v>
       </c>
       <c r="Y73">
-        <v>831</v>
+        <v>162</v>
       </c>
       <c r="Z73">
-        <v>1583</v>
+        <v>284</v>
       </c>
       <c r="AA73">
         <v>100</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="AD73">
         <v>0</v>
@@ -11913,66 +11907,66 @@
         <v>0</v>
       </c>
       <c r="AF73" t="s">
-        <v>695</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>626</v>
+        <v>966</v>
       </c>
       <c r="B74" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="C74" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>601</v>
       </c>
       <c r="F74">
-        <v>486</v>
+        <v>318</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="H74" t="s">
         <v>31</v>
       </c>
       <c r="I74" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J74" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="K74" t="s">
-        <v>65</v>
+        <v>569</v>
       </c>
       <c r="L74" t="s">
-        <v>66</v>
+        <v>602</v>
       </c>
       <c r="M74" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N74" t="s">
-        <v>67</v>
+        <v>603</v>
       </c>
       <c r="O74" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="P74" t="s">
-        <v>625</v>
+        <v>965</v>
       </c>
       <c r="Q74" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R74">
-        <v>341710146</v>
+        <v>2001</v>
       </c>
       <c r="S74">
-        <v>341710631</v>
+        <v>2318</v>
       </c>
       <c r="T74" t="s">
         <v>41</v>
@@ -11981,28 +11975,28 @@
         <v>1</v>
       </c>
       <c r="V74">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="W74">
         <v>1</v>
       </c>
       <c r="X74">
-        <v>486</v>
+        <v>318</v>
       </c>
       <c r="Y74">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="Z74">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="AA74">
         <v>100</v>
       </c>
       <c r="AB74">
-        <v>9.75</v>
+        <v>1.66</v>
       </c>
       <c r="AC74">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="AD74">
         <v>0</v>
@@ -12011,30 +12005,30 @@
         <v>0</v>
       </c>
       <c r="AF74" t="s">
-        <v>627</v>
+        <v>967</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>966</v>
+        <v>388</v>
       </c>
       <c r="B75" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="C75" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1083</v>
+        <v>1018</v>
       </c>
       <c r="E75" t="s">
-        <v>601</v>
+        <v>366</v>
       </c>
       <c r="F75">
-        <v>318</v>
+        <v>1821</v>
       </c>
       <c r="G75">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H75" t="s">
         <v>31</v>
@@ -12046,31 +12040,31 @@
         <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>569</v>
+        <v>172</v>
       </c>
       <c r="L75" t="s">
-        <v>602</v>
+        <v>367</v>
       </c>
       <c r="M75" t="s">
         <v>36</v>
       </c>
       <c r="N75" t="s">
-        <v>603</v>
+        <v>368</v>
       </c>
       <c r="O75" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="P75" t="s">
-        <v>965</v>
+        <v>728</v>
       </c>
       <c r="Q75" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R75">
-        <v>2001</v>
+        <v>1343538</v>
       </c>
       <c r="S75">
-        <v>2318</v>
+        <v>1345358</v>
       </c>
       <c r="T75" t="s">
         <v>41</v>
@@ -12079,28 +12073,28 @@
         <v>1</v>
       </c>
       <c r="V75">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="W75">
         <v>1</v>
       </c>
       <c r="X75">
-        <v>318</v>
+        <v>1821</v>
       </c>
       <c r="Y75">
-        <v>106</v>
+        <v>607</v>
       </c>
       <c r="Z75">
-        <v>218</v>
+        <v>1172</v>
       </c>
       <c r="AA75">
         <v>100</v>
       </c>
       <c r="AB75">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="AD75">
         <v>0</v>
@@ -12109,30 +12103,30 @@
         <v>0</v>
       </c>
       <c r="AF75" t="s">
-        <v>967</v>
+        <v>725</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>388</v>
+        <v>818</v>
       </c>
       <c r="B76" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C76" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="E76" t="s">
-        <v>366</v>
+        <v>812</v>
       </c>
       <c r="F76">
-        <v>1821</v>
+        <v>183</v>
       </c>
       <c r="G76">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
         <v>31</v>
@@ -12144,31 +12138,31 @@
         <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>172</v>
+        <v>813</v>
       </c>
       <c r="L76" t="s">
-        <v>367</v>
+        <v>814</v>
       </c>
       <c r="M76" t="s">
         <v>36</v>
       </c>
       <c r="N76" t="s">
-        <v>368</v>
+        <v>815</v>
       </c>
       <c r="O76" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="P76" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="Q76" t="s">
         <v>40</v>
       </c>
       <c r="R76">
-        <v>1343538</v>
+        <v>2110666</v>
       </c>
       <c r="S76">
-        <v>1345358</v>
+        <v>2110848</v>
       </c>
       <c r="T76" t="s">
         <v>41</v>
@@ -12177,28 +12171,28 @@
         <v>1</v>
       </c>
       <c r="V76">
-        <v>607</v>
+        <v>61</v>
       </c>
       <c r="W76">
         <v>1</v>
       </c>
       <c r="X76">
-        <v>1821</v>
+        <v>183</v>
       </c>
       <c r="Y76">
-        <v>607</v>
+        <v>61</v>
       </c>
       <c r="Z76">
-        <v>1172</v>
+        <v>128</v>
       </c>
       <c r="AA76">
         <v>100</v>
       </c>
       <c r="AB76">
-        <v>0</v>
+        <v>3.94</v>
       </c>
       <c r="AC76">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="AD76">
         <v>0</v>
@@ -12207,30 +12201,30 @@
         <v>0</v>
       </c>
       <c r="AF76" t="s">
-        <v>725</v>
+        <v>819</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>818</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s">
-        <v>1211</v>
+        <v>1245</v>
       </c>
       <c r="C77" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1059</v>
+        <v>1027</v>
       </c>
       <c r="E77" t="s">
-        <v>812</v>
+        <v>453</v>
       </c>
       <c r="F77">
-        <v>183</v>
+        <v>951</v>
       </c>
       <c r="G77">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="H77" t="s">
         <v>31</v>
@@ -12242,31 +12236,31 @@
         <v>33</v>
       </c>
       <c r="K77" t="s">
-        <v>813</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s">
-        <v>814</v>
+        <v>455</v>
       </c>
       <c r="M77" t="s">
         <v>36</v>
       </c>
       <c r="N77" t="s">
-        <v>815</v>
+        <v>456</v>
       </c>
       <c r="O77" t="s">
-        <v>816</v>
+        <v>457</v>
       </c>
       <c r="P77" t="s">
-        <v>817</v>
+        <v>458</v>
       </c>
       <c r="Q77" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R77">
-        <v>2110666</v>
+        <v>581245</v>
       </c>
       <c r="S77">
-        <v>2110848</v>
+        <v>582195</v>
       </c>
       <c r="T77" t="s">
         <v>41</v>
@@ -12275,28 +12269,28 @@
         <v>1</v>
       </c>
       <c r="V77">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="W77">
         <v>1</v>
       </c>
       <c r="X77">
-        <v>183</v>
+        <v>951</v>
       </c>
       <c r="Y77">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="Z77">
-        <v>128</v>
+        <v>501</v>
       </c>
       <c r="AA77">
         <v>100</v>
       </c>
       <c r="AB77">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>0</v>
@@ -12305,27 +12299,27 @@
         <v>0</v>
       </c>
       <c r="AF77" t="s">
-        <v>819</v>
+        <v>445</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>459</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C78" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
       <c r="E78" t="s">
         <v>453</v>
       </c>
       <c r="F78">
-        <v>951</v>
+        <v>4284</v>
       </c>
       <c r="G78">
         <v>131</v>
@@ -12355,16 +12349,16 @@
         <v>457</v>
       </c>
       <c r="P78" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="Q78" t="s">
         <v>49</v>
       </c>
       <c r="R78">
-        <v>581245</v>
+        <v>4500230</v>
       </c>
       <c r="S78">
-        <v>582195</v>
+        <v>4504513</v>
       </c>
       <c r="T78" t="s">
         <v>41</v>
@@ -12373,19 +12367,19 @@
         <v>1</v>
       </c>
       <c r="V78">
-        <v>317</v>
+        <v>1428</v>
       </c>
       <c r="W78">
         <v>1</v>
       </c>
       <c r="X78">
-        <v>951</v>
+        <v>4284</v>
       </c>
       <c r="Y78">
-        <v>317</v>
+        <v>1428</v>
       </c>
       <c r="Z78">
-        <v>501</v>
+        <v>2743</v>
       </c>
       <c r="AA78">
         <v>100</v>
@@ -12403,66 +12397,66 @@
         <v>0</v>
       </c>
       <c r="AF78" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
       <c r="B79" t="s">
-        <v>1250</v>
+        <v>1208</v>
       </c>
       <c r="C79" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1001</v>
+        <v>1050</v>
       </c>
       <c r="E79" t="s">
-        <v>453</v>
+        <v>615</v>
       </c>
       <c r="F79">
-        <v>4284</v>
+        <v>863</v>
       </c>
       <c r="G79">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
         <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="J79" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>454</v>
+        <v>616</v>
       </c>
       <c r="L79" t="s">
-        <v>455</v>
+        <v>617</v>
       </c>
       <c r="M79" t="s">
         <v>36</v>
       </c>
       <c r="N79" t="s">
-        <v>456</v>
+        <v>618</v>
       </c>
       <c r="O79" t="s">
-        <v>457</v>
+        <v>619</v>
       </c>
       <c r="P79" t="s">
-        <v>470</v>
+        <v>620</v>
       </c>
       <c r="Q79" t="s">
         <v>49</v>
       </c>
       <c r="R79">
-        <v>4500230</v>
+        <v>24513</v>
       </c>
       <c r="S79">
-        <v>4504513</v>
+        <v>25375</v>
       </c>
       <c r="T79" t="s">
         <v>41</v>
@@ -12471,19 +12465,19 @@
         <v>1</v>
       </c>
       <c r="V79">
-        <v>1428</v>
+        <v>287</v>
       </c>
       <c r="W79">
         <v>1</v>
       </c>
       <c r="X79">
-        <v>4284</v>
+        <v>861</v>
       </c>
       <c r="Y79">
-        <v>1428</v>
+        <v>287</v>
       </c>
       <c r="Z79">
-        <v>2743</v>
+        <v>566</v>
       </c>
       <c r="AA79">
         <v>100</v>
@@ -12501,66 +12495,66 @@
         <v>0</v>
       </c>
       <c r="AF79" t="s">
-        <v>471</v>
+        <v>622</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>621</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C80" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1050</v>
+        <v>991</v>
       </c>
       <c r="E80" t="s">
-        <v>615</v>
+        <v>72</v>
       </c>
       <c r="F80">
-        <v>863</v>
+        <v>2631</v>
       </c>
       <c r="G80">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H80" t="s">
         <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="J80" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K80" t="s">
-        <v>616</v>
+        <v>74</v>
       </c>
       <c r="L80" t="s">
-        <v>617</v>
+        <v>75</v>
       </c>
       <c r="M80" t="s">
         <v>36</v>
       </c>
       <c r="N80" t="s">
-        <v>618</v>
+        <v>76</v>
       </c>
       <c r="O80" t="s">
-        <v>619</v>
+        <v>77</v>
       </c>
       <c r="P80" t="s">
-        <v>620</v>
+        <v>101</v>
       </c>
       <c r="Q80" t="s">
         <v>49</v>
       </c>
       <c r="R80">
-        <v>24513</v>
+        <v>3102949</v>
       </c>
       <c r="S80">
-        <v>25375</v>
+        <v>3105579</v>
       </c>
       <c r="T80" t="s">
         <v>41</v>
@@ -12569,19 +12563,19 @@
         <v>1</v>
       </c>
       <c r="V80">
-        <v>287</v>
+        <v>877</v>
       </c>
       <c r="W80">
         <v>1</v>
       </c>
       <c r="X80">
-        <v>861</v>
+        <v>2631</v>
       </c>
       <c r="Y80">
-        <v>287</v>
+        <v>877</v>
       </c>
       <c r="Z80">
-        <v>566</v>
+        <v>1712</v>
       </c>
       <c r="AA80">
         <v>100</v>
@@ -12599,27 +12593,27 @@
         <v>0</v>
       </c>
       <c r="AF80" t="s">
-        <v>622</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="C81" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E81" t="s">
         <v>72</v>
       </c>
       <c r="F81">
-        <v>2631</v>
+        <v>6260</v>
       </c>
       <c r="G81">
         <v>24</v>
@@ -12649,16 +12643,16 @@
         <v>77</v>
       </c>
       <c r="P81" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="Q81" t="s">
         <v>49</v>
       </c>
       <c r="R81">
-        <v>3102949</v>
+        <v>8062397</v>
       </c>
       <c r="S81">
-        <v>3105579</v>
+        <v>8068656</v>
       </c>
       <c r="T81" t="s">
         <v>41</v>
@@ -12667,19 +12661,19 @@
         <v>1</v>
       </c>
       <c r="V81">
-        <v>877</v>
+        <v>2086</v>
       </c>
       <c r="W81">
         <v>1</v>
       </c>
       <c r="X81">
-        <v>2631</v>
+        <v>6258</v>
       </c>
       <c r="Y81">
-        <v>877</v>
+        <v>2086</v>
       </c>
       <c r="Z81">
-        <v>1712</v>
+        <v>3725</v>
       </c>
       <c r="AA81">
         <v>100</v>
@@ -12697,27 +12691,27 @@
         <v>0</v>
       </c>
       <c r="AF81" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>882</v>
       </c>
       <c r="B82" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="C82" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>994</v>
+        <v>1069</v>
       </c>
       <c r="E82" t="s">
         <v>72</v>
       </c>
       <c r="F82">
-        <v>6260</v>
+        <v>1407</v>
       </c>
       <c r="G82">
         <v>24</v>
@@ -12747,16 +12741,16 @@
         <v>77</v>
       </c>
       <c r="P82" t="s">
-        <v>117</v>
+        <v>881</v>
       </c>
       <c r="Q82" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R82">
-        <v>8062397</v>
+        <v>24712785</v>
       </c>
       <c r="S82">
-        <v>8068656</v>
+        <v>24714191</v>
       </c>
       <c r="T82" t="s">
         <v>41</v>
@@ -12765,19 +12759,19 @@
         <v>1</v>
       </c>
       <c r="V82">
-        <v>2086</v>
+        <v>469</v>
       </c>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="X82">
-        <v>6258</v>
+        <v>1407</v>
       </c>
       <c r="Y82">
-        <v>2086</v>
+        <v>469</v>
       </c>
       <c r="Z82">
-        <v>3725</v>
+        <v>801</v>
       </c>
       <c r="AA82">
         <v>100</v>
@@ -12795,27 +12789,27 @@
         <v>0</v>
       </c>
       <c r="AF82" t="s">
-        <v>119</v>
+        <v>883</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>882</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C83" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1069</v>
+        <v>993</v>
       </c>
       <c r="E83" t="s">
         <v>72</v>
       </c>
       <c r="F83">
-        <v>1407</v>
+        <v>2441</v>
       </c>
       <c r="G83">
         <v>24</v>
@@ -12845,16 +12839,16 @@
         <v>77</v>
       </c>
       <c r="P83" t="s">
-        <v>881</v>
+        <v>114</v>
       </c>
       <c r="Q83" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R83">
-        <v>24712785</v>
+        <v>1348819</v>
       </c>
       <c r="S83">
-        <v>24714191</v>
+        <v>1351259</v>
       </c>
       <c r="T83" t="s">
         <v>41</v>
@@ -12863,19 +12857,19 @@
         <v>1</v>
       </c>
       <c r="V83">
-        <v>469</v>
+        <v>813</v>
       </c>
       <c r="W83">
         <v>1</v>
       </c>
       <c r="X83">
-        <v>1407</v>
+        <v>2439</v>
       </c>
       <c r="Y83">
-        <v>469</v>
+        <v>813</v>
       </c>
       <c r="Z83">
-        <v>801</v>
+        <v>1638</v>
       </c>
       <c r="AA83">
         <v>100</v>
@@ -12893,27 +12887,27 @@
         <v>0</v>
       </c>
       <c r="AF83" t="s">
-        <v>883</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>540</v>
       </c>
       <c r="B84" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C84" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>993</v>
+        <v>1038</v>
       </c>
       <c r="E84" t="s">
         <v>72</v>
       </c>
       <c r="F84">
-        <v>2441</v>
+        <v>828</v>
       </c>
       <c r="G84">
         <v>24</v>
@@ -12943,16 +12937,16 @@
         <v>77</v>
       </c>
       <c r="P84" t="s">
-        <v>114</v>
+        <v>539</v>
       </c>
       <c r="Q84" t="s">
         <v>49</v>
       </c>
       <c r="R84">
-        <v>1348819</v>
+        <v>1686942</v>
       </c>
       <c r="S84">
-        <v>1351259</v>
+        <v>1687769</v>
       </c>
       <c r="T84" t="s">
         <v>41</v>
@@ -12961,19 +12955,19 @@
         <v>1</v>
       </c>
       <c r="V84">
-        <v>813</v>
+        <v>276</v>
       </c>
       <c r="W84">
         <v>1</v>
       </c>
       <c r="X84">
-        <v>2439</v>
+        <v>828</v>
       </c>
       <c r="Y84">
-        <v>813</v>
+        <v>276</v>
       </c>
       <c r="Z84">
-        <v>1638</v>
+        <v>565</v>
       </c>
       <c r="AA84">
         <v>100</v>
@@ -12991,27 +12985,27 @@
         <v>0</v>
       </c>
       <c r="AF84" t="s">
-        <v>103</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="B85" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C85" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="E85" t="s">
         <v>72</v>
       </c>
       <c r="F85">
-        <v>828</v>
+        <v>3735</v>
       </c>
       <c r="G85">
         <v>24</v>
@@ -13041,16 +13035,16 @@
         <v>77</v>
       </c>
       <c r="P85" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="Q85" t="s">
         <v>49</v>
       </c>
       <c r="R85">
-        <v>1686942</v>
+        <v>8421405</v>
       </c>
       <c r="S85">
-        <v>1687769</v>
+        <v>8425139</v>
       </c>
       <c r="T85" t="s">
         <v>41</v>
@@ -13059,19 +13053,19 @@
         <v>1</v>
       </c>
       <c r="V85">
-        <v>276</v>
+        <v>1245</v>
       </c>
       <c r="W85">
         <v>1</v>
       </c>
       <c r="X85">
-        <v>828</v>
+        <v>3735</v>
       </c>
       <c r="Y85">
-        <v>276</v>
+        <v>1245</v>
       </c>
       <c r="Z85">
-        <v>565</v>
+        <v>2456</v>
       </c>
       <c r="AA85">
         <v>100</v>
@@ -13089,27 +13083,27 @@
         <v>0</v>
       </c>
       <c r="AF85" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>576</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C86" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="E86" t="s">
         <v>72</v>
       </c>
       <c r="F86">
-        <v>3735</v>
+        <v>1794</v>
       </c>
       <c r="G86">
         <v>24</v>
@@ -13139,16 +13133,16 @@
         <v>77</v>
       </c>
       <c r="P86" t="s">
-        <v>575</v>
+        <v>515</v>
       </c>
       <c r="Q86" t="s">
         <v>49</v>
       </c>
       <c r="R86">
-        <v>8421405</v>
+        <v>9095494</v>
       </c>
       <c r="S86">
-        <v>8425139</v>
+        <v>9097287</v>
       </c>
       <c r="T86" t="s">
         <v>41</v>
@@ -13157,19 +13151,19 @@
         <v>1</v>
       </c>
       <c r="V86">
-        <v>1245</v>
+        <v>598</v>
       </c>
       <c r="W86">
         <v>1</v>
       </c>
       <c r="X86">
-        <v>3735</v>
+        <v>1794</v>
       </c>
       <c r="Y86">
-        <v>1245</v>
+        <v>598</v>
       </c>
       <c r="Z86">
-        <v>2456</v>
+        <v>1118</v>
       </c>
       <c r="AA86">
         <v>100</v>
@@ -13187,27 +13181,27 @@
         <v>0</v>
       </c>
       <c r="AF86" t="s">
-        <v>577</v>
+        <v>517</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>886</v>
       </c>
       <c r="B87" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C87" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1035</v>
+        <v>1070</v>
       </c>
       <c r="E87" t="s">
         <v>72</v>
       </c>
       <c r="F87">
-        <v>1794</v>
+        <v>5032</v>
       </c>
       <c r="G87">
         <v>24</v>
@@ -13237,16 +13231,16 @@
         <v>77</v>
       </c>
       <c r="P87" t="s">
-        <v>515</v>
+        <v>885</v>
       </c>
       <c r="Q87" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R87">
-        <v>9095494</v>
+        <v>8158598</v>
       </c>
       <c r="S87">
-        <v>9097287</v>
+        <v>8163629</v>
       </c>
       <c r="T87" t="s">
         <v>41</v>
@@ -13255,19 +13249,19 @@
         <v>1</v>
       </c>
       <c r="V87">
-        <v>598</v>
+        <v>1677</v>
       </c>
       <c r="W87">
         <v>1</v>
       </c>
       <c r="X87">
-        <v>1794</v>
+        <v>5031</v>
       </c>
       <c r="Y87">
-        <v>598</v>
+        <v>1677</v>
       </c>
       <c r="Z87">
-        <v>1118</v>
+        <v>2959</v>
       </c>
       <c r="AA87">
         <v>100</v>
@@ -13285,27 +13279,27 @@
         <v>0</v>
       </c>
       <c r="AF87" t="s">
-        <v>517</v>
+        <v>887</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>886</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="C88" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1070</v>
+        <v>988</v>
       </c>
       <c r="E88" t="s">
         <v>72</v>
       </c>
       <c r="F88">
-        <v>5032</v>
+        <v>618</v>
       </c>
       <c r="G88">
         <v>24</v>
@@ -13335,16 +13329,16 @@
         <v>77</v>
       </c>
       <c r="P88" t="s">
-        <v>885</v>
+        <v>78</v>
       </c>
       <c r="Q88" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R88">
-        <v>8158598</v>
+        <v>2405140</v>
       </c>
       <c r="S88">
-        <v>8163629</v>
+        <v>2405757</v>
       </c>
       <c r="T88" t="s">
         <v>41</v>
@@ -13353,28 +13347,28 @@
         <v>1</v>
       </c>
       <c r="V88">
-        <v>1677</v>
+        <v>206</v>
       </c>
       <c r="W88">
         <v>1</v>
       </c>
       <c r="X88">
-        <v>5031</v>
+        <v>618</v>
       </c>
       <c r="Y88">
-        <v>1677</v>
+        <v>206</v>
       </c>
       <c r="Z88">
-        <v>2959</v>
+        <v>419</v>
       </c>
       <c r="AA88">
         <v>100</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="AD88">
         <v>0</v>
@@ -13383,66 +13377,66 @@
         <v>0</v>
       </c>
       <c r="AF88" t="s">
-        <v>887</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>79</v>
+        <v>1171</v>
       </c>
       <c r="B89" t="s">
-        <v>1221</v>
+        <v>1101</v>
       </c>
       <c r="C89" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F89">
-        <v>618</v>
+        <v>393</v>
       </c>
       <c r="G89">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="H89" t="s">
         <v>31</v>
       </c>
       <c r="I89" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J89" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K89" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="L89" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M89" t="s">
         <v>36</v>
       </c>
       <c r="N89" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="O89" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="P89" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="Q89" t="s">
         <v>49</v>
       </c>
       <c r="R89">
-        <v>2405140</v>
+        <v>256278</v>
       </c>
       <c r="S89">
-        <v>2405757</v>
+        <v>256670</v>
       </c>
       <c r="T89" t="s">
         <v>41</v>
@@ -13451,28 +13445,28 @@
         <v>1</v>
       </c>
       <c r="V89">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="W89">
         <v>1</v>
       </c>
       <c r="X89">
-        <v>618</v>
+        <v>393</v>
       </c>
       <c r="Y89">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="Z89">
-        <v>419</v>
+        <v>271</v>
       </c>
       <c r="AA89">
         <v>100</v>
       </c>
       <c r="AB89">
-        <v>6.7</v>
+        <v>1.53</v>
       </c>
       <c r="AC89">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="AD89">
         <v>0</v>
@@ -13481,12 +13475,12 @@
         <v>0</v>
       </c>
       <c r="AF89" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B90" t="s">
         <v>1101</v>
@@ -13498,13 +13492,13 @@
         <v>985</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>664</v>
       </c>
       <c r="F90">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="G90">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="H90" t="s">
         <v>31</v>
@@ -13519,28 +13513,28 @@
         <v>34</v>
       </c>
       <c r="L90" t="s">
-        <v>45</v>
+        <v>665</v>
       </c>
       <c r="M90" t="s">
         <v>36</v>
       </c>
       <c r="N90" t="s">
-        <v>46</v>
+        <v>666</v>
       </c>
       <c r="O90" t="s">
-        <v>47</v>
+        <v>667</v>
       </c>
       <c r="P90" t="s">
-        <v>48</v>
+        <v>668</v>
       </c>
       <c r="Q90" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R90">
-        <v>256278</v>
+        <v>231510075</v>
       </c>
       <c r="S90">
-        <v>256670</v>
+        <v>231510425</v>
       </c>
       <c r="T90" t="s">
         <v>41</v>
@@ -13549,42 +13543,42 @@
         <v>1</v>
       </c>
       <c r="V90">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="W90">
         <v>1</v>
       </c>
       <c r="X90">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="Y90">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Z90">
-        <v>271</v>
+        <v>110</v>
       </c>
       <c r="AA90">
-        <v>100</v>
+        <v>52.8</v>
       </c>
       <c r="AB90">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="AC90">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE90">
         <v>0</v>
       </c>
       <c r="AF90" t="s">
-        <v>50</v>
+        <v>669</v>
       </c>
     </row>
     <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B91" t="s">
         <v>1101</v>
@@ -13596,13 +13590,13 @@
         <v>985</v>
       </c>
       <c r="E91" t="s">
-        <v>664</v>
+        <v>601</v>
       </c>
       <c r="F91">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="G91">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="H91" t="s">
         <v>31</v>
@@ -13614,31 +13608,31 @@
         <v>33</v>
       </c>
       <c r="K91" t="s">
-        <v>34</v>
+        <v>569</v>
       </c>
       <c r="L91" t="s">
-        <v>665</v>
+        <v>602</v>
       </c>
       <c r="M91" t="s">
         <v>36</v>
       </c>
       <c r="N91" t="s">
-        <v>666</v>
+        <v>603</v>
       </c>
       <c r="O91" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="P91" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="Q91" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R91">
-        <v>231510075</v>
+        <v>9935592</v>
       </c>
       <c r="S91">
-        <v>231510425</v>
+        <v>9935999</v>
       </c>
       <c r="T91" t="s">
         <v>41</v>
@@ -13647,42 +13641,42 @@
         <v>1</v>
       </c>
       <c r="V91">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="W91">
         <v>1</v>
       </c>
       <c r="X91">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="Y91">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Z91">
-        <v>110</v>
+        <v>93.2</v>
       </c>
       <c r="AA91">
-        <v>52.8</v>
+        <v>47.328000000000003</v>
       </c>
       <c r="AB91">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="AC91">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AD91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE91">
         <v>0</v>
       </c>
       <c r="AF91" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B92" t="s">
         <v>1101</v>
@@ -13694,13 +13688,13 @@
         <v>985</v>
       </c>
       <c r="E92" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="F92">
         <v>408</v>
       </c>
       <c r="G92">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H92" t="s">
         <v>31</v>
@@ -13712,16 +13706,16 @@
         <v>33</v>
       </c>
       <c r="K92" t="s">
-        <v>569</v>
+        <v>34</v>
       </c>
       <c r="L92" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="M92" t="s">
         <v>36</v>
       </c>
       <c r="N92" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="O92" t="s">
         <v>637</v>
@@ -13780,7 +13774,7 @@
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B93" t="s">
         <v>1101</v>
@@ -13792,13 +13786,13 @@
         <v>985</v>
       </c>
       <c r="E93" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="F93">
-        <v>408</v>
+        <v>330</v>
       </c>
       <c r="G93">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H93" t="s">
         <v>31</v>
@@ -13813,28 +13807,28 @@
         <v>34</v>
       </c>
       <c r="L93" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="M93" t="s">
         <v>36</v>
       </c>
       <c r="N93" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="O93" t="s">
-        <v>637</v>
+        <v>660</v>
       </c>
       <c r="P93" t="s">
-        <v>638</v>
+        <v>661</v>
       </c>
       <c r="Q93" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R93">
-        <v>9935592</v>
+        <v>15351</v>
       </c>
       <c r="S93">
-        <v>9935999</v>
+        <v>15680</v>
       </c>
       <c r="T93" t="s">
         <v>41</v>
@@ -13843,42 +13837,42 @@
         <v>1</v>
       </c>
       <c r="V93">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="W93">
         <v>1</v>
       </c>
       <c r="X93">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="Y93">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Z93">
-        <v>93.2</v>
+        <v>89.4</v>
       </c>
       <c r="AA93">
-        <v>47.328000000000003</v>
+        <v>45.161000000000001</v>
       </c>
       <c r="AB93">
-        <v>3</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="AC93">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE93">
         <v>0</v>
       </c>
       <c r="AF93" t="s">
-        <v>639</v>
+        <v>662</v>
       </c>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B94" t="s">
         <v>1101</v>
@@ -13890,13 +13884,13 @@
         <v>985</v>
       </c>
       <c r="E94" t="s">
-        <v>657</v>
+        <v>30</v>
       </c>
       <c r="F94">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="G94">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="H94" t="s">
         <v>31</v>
@@ -13911,28 +13905,28 @@
         <v>34</v>
       </c>
       <c r="L94" t="s">
-        <v>658</v>
+        <v>35</v>
       </c>
       <c r="M94" t="s">
         <v>36</v>
       </c>
       <c r="N94" t="s">
-        <v>659</v>
+        <v>37</v>
       </c>
       <c r="O94" t="s">
-        <v>660</v>
+        <v>38</v>
       </c>
       <c r="P94" t="s">
-        <v>661</v>
+        <v>39</v>
       </c>
       <c r="Q94" t="s">
         <v>40</v>
       </c>
       <c r="R94">
-        <v>15351</v>
+        <v>1557</v>
       </c>
       <c r="S94">
-        <v>15680</v>
+        <v>1748</v>
       </c>
       <c r="T94" t="s">
         <v>41</v>
@@ -13941,42 +13935,42 @@
         <v>1</v>
       </c>
       <c r="V94">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="W94">
         <v>1</v>
       </c>
       <c r="X94">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="Y94">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="Z94">
-        <v>89.4</v>
+        <v>88.6</v>
       </c>
       <c r="AA94">
-        <v>45.161000000000001</v>
+        <v>95.652000000000001</v>
       </c>
       <c r="AB94">
-        <v>4.1900000000000004</v>
+        <v>1.48</v>
       </c>
       <c r="AC94">
         <v>26</v>
       </c>
       <c r="AD94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE94">
         <v>0</v>
       </c>
       <c r="AF94" t="s">
-        <v>662</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B95" t="s">
         <v>1101</v>
@@ -13988,13 +13982,13 @@
         <v>985</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>645</v>
       </c>
       <c r="F95">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="G95">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="H95" t="s">
         <v>31</v>
@@ -14006,31 +14000,31 @@
         <v>33</v>
       </c>
       <c r="K95" t="s">
-        <v>34</v>
+        <v>646</v>
       </c>
       <c r="L95" t="s">
-        <v>35</v>
+        <v>647</v>
       </c>
       <c r="M95" t="s">
         <v>36</v>
       </c>
       <c r="N95" t="s">
-        <v>37</v>
+        <v>648</v>
       </c>
       <c r="O95" t="s">
-        <v>38</v>
+        <v>649</v>
       </c>
       <c r="P95" t="s">
-        <v>39</v>
+        <v>650</v>
       </c>
       <c r="Q95" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R95">
-        <v>1557</v>
+        <v>58968</v>
       </c>
       <c r="S95">
-        <v>1748</v>
+        <v>59303</v>
       </c>
       <c r="T95" t="s">
         <v>41</v>
@@ -14039,42 +14033,42 @@
         <v>1</v>
       </c>
       <c r="V95">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="W95">
         <v>1</v>
       </c>
       <c r="X95">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="Y95">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="Z95">
-        <v>88.6</v>
+        <v>84.7</v>
       </c>
       <c r="AA95">
-        <v>95.652000000000001</v>
+        <v>47.106999999999999</v>
       </c>
       <c r="AB95">
-        <v>1.48</v>
+        <v>3.22</v>
       </c>
       <c r="AC95">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AD95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE95">
         <v>0</v>
       </c>
       <c r="AF95" t="s">
-        <v>42</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B96" t="s">
         <v>1101</v>
@@ -14086,13 +14080,13 @@
         <v>985</v>
       </c>
       <c r="E96" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F96">
         <v>336</v>
       </c>
       <c r="G96">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="H96" t="s">
         <v>31</v>
@@ -14113,22 +14107,22 @@
         <v>36</v>
       </c>
       <c r="N96" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="O96" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="P96" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="Q96" t="s">
         <v>49</v>
       </c>
       <c r="R96">
-        <v>58968</v>
+        <v>5184</v>
       </c>
       <c r="S96">
-        <v>59303</v>
+        <v>5519</v>
       </c>
       <c r="T96" t="s">
         <v>41</v>
@@ -14149,16 +14143,16 @@
         <v>121</v>
       </c>
       <c r="Z96">
-        <v>84.7</v>
+        <v>83.2</v>
       </c>
       <c r="AA96">
         <v>47.106999999999999</v>
       </c>
       <c r="AB96">
-        <v>3.22</v>
+        <v>1.31</v>
       </c>
       <c r="AC96">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD96">
         <v>3</v>
@@ -14172,7 +14166,7 @@
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="B97" t="s">
         <v>1101</v>
@@ -14184,13 +14178,13 @@
         <v>985</v>
       </c>
       <c r="E97" t="s">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="F97">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="G97">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H97" t="s">
         <v>31</v>
@@ -14202,64 +14196,64 @@
         <v>33</v>
       </c>
       <c r="K97" t="s">
-        <v>646</v>
+        <v>569</v>
       </c>
       <c r="L97" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="M97" t="s">
         <v>36</v>
       </c>
       <c r="N97" t="s">
-        <v>653</v>
+        <v>603</v>
       </c>
       <c r="O97" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="P97" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="Q97" t="s">
         <v>49</v>
       </c>
       <c r="R97">
-        <v>5184</v>
+        <v>9982632</v>
       </c>
       <c r="S97">
-        <v>5519</v>
+        <v>9983099</v>
       </c>
       <c r="T97" t="s">
         <v>41</v>
       </c>
       <c r="U97">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="V97">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="W97">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="X97">
-        <v>336</v>
+        <v>468</v>
       </c>
       <c r="Y97">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Z97">
-        <v>83.2</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="AA97">
-        <v>47.106999999999999</v>
+        <v>50.633000000000003</v>
       </c>
       <c r="AB97">
-        <v>1.31</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AC97">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AD97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE97">
         <v>0</v>
@@ -14270,7 +14264,7 @@
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B98" t="s">
         <v>1101</v>
@@ -14282,13 +14276,13 @@
         <v>985</v>
       </c>
       <c r="E98" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="F98">
         <v>468</v>
       </c>
       <c r="G98">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H98" t="s">
         <v>31</v>
@@ -14300,16 +14294,16 @@
         <v>33</v>
       </c>
       <c r="K98" t="s">
-        <v>569</v>
+        <v>34</v>
       </c>
       <c r="L98" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="M98" t="s">
         <v>36</v>
       </c>
       <c r="N98" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="O98" t="s">
         <v>637</v>
@@ -14368,159 +14362,159 @@
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1174</v>
+        <v>634</v>
       </c>
       <c r="B99" t="s">
-        <v>1101</v>
+        <v>1218</v>
       </c>
       <c r="C99" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>985</v>
+        <v>1052</v>
       </c>
       <c r="E99" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="F99">
-        <v>468</v>
+        <v>757</v>
       </c>
       <c r="G99">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="H99" t="s">
         <v>31</v>
       </c>
       <c r="I99" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="J99" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K99" t="s">
-        <v>34</v>
+        <v>616</v>
       </c>
       <c r="L99" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="M99" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N99" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="O99" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="P99" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="Q99" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R99">
-        <v>9982632</v>
+        <v>81310193</v>
       </c>
       <c r="S99">
-        <v>9983099</v>
+        <v>81310949</v>
       </c>
       <c r="T99" t="s">
         <v>41</v>
       </c>
       <c r="U99">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="V99">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="W99">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="X99">
-        <v>468</v>
+        <v>756</v>
       </c>
       <c r="Y99">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="Z99">
-        <v>80.099999999999994</v>
+        <v>472</v>
       </c>
       <c r="AA99">
-        <v>50.633000000000003</v>
+        <v>100</v>
       </c>
       <c r="AB99">
-        <v>2.2799999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="AC99">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="AD99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE99">
         <v>0</v>
       </c>
       <c r="AF99" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>634</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="C100" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1052</v>
+        <v>1007</v>
       </c>
       <c r="E100" t="s">
-        <v>629</v>
+        <v>272</v>
       </c>
       <c r="F100">
-        <v>757</v>
+        <v>3937</v>
       </c>
       <c r="G100">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="H100" t="s">
         <v>31</v>
       </c>
       <c r="I100" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="J100" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="K100" t="s">
-        <v>616</v>
+        <v>273</v>
       </c>
       <c r="L100" t="s">
-        <v>630</v>
+        <v>274</v>
       </c>
       <c r="M100" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N100" t="s">
-        <v>631</v>
+        <v>275</v>
       </c>
       <c r="O100" t="s">
-        <v>632</v>
+        <v>276</v>
       </c>
       <c r="P100" t="s">
-        <v>633</v>
+        <v>277</v>
       </c>
       <c r="Q100" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R100">
-        <v>81310193</v>
+        <v>29163</v>
       </c>
       <c r="S100">
-        <v>81310949</v>
+        <v>33099</v>
       </c>
       <c r="T100" t="s">
         <v>41</v>
@@ -14529,28 +14523,28 @@
         <v>1</v>
       </c>
       <c r="V100">
-        <v>252</v>
+        <v>1312</v>
       </c>
       <c r="W100">
         <v>1</v>
       </c>
       <c r="X100">
-        <v>756</v>
+        <v>3936</v>
       </c>
       <c r="Y100">
-        <v>252</v>
+        <v>1312</v>
       </c>
       <c r="Z100">
-        <v>472</v>
+        <v>2291</v>
       </c>
       <c r="AA100">
         <v>100</v>
       </c>
       <c r="AB100">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="AD100">
         <v>0</v>
@@ -14559,30 +14553,30 @@
         <v>0</v>
       </c>
       <c r="AF100" t="s">
-        <v>635</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>278</v>
+        <v>467</v>
       </c>
       <c r="B101" t="s">
-        <v>1223</v>
+        <v>1250</v>
       </c>
       <c r="C101" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="E101" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="F101">
-        <v>3937</v>
+        <v>1394</v>
       </c>
       <c r="G101">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H101" t="s">
         <v>31</v>
@@ -14594,31 +14588,31 @@
         <v>33</v>
       </c>
       <c r="K101" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="L101" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="M101" t="s">
         <v>36</v>
       </c>
       <c r="N101" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="O101" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="P101" t="s">
-        <v>277</v>
+        <v>466</v>
       </c>
       <c r="Q101" t="s">
         <v>49</v>
       </c>
       <c r="R101">
-        <v>29163</v>
+        <v>23584</v>
       </c>
       <c r="S101">
-        <v>33099</v>
+        <v>24977</v>
       </c>
       <c r="T101" t="s">
         <v>41</v>
@@ -14627,19 +14621,19 @@
         <v>1</v>
       </c>
       <c r="V101">
-        <v>1312</v>
+        <v>464</v>
       </c>
       <c r="W101">
         <v>1</v>
       </c>
       <c r="X101">
-        <v>3936</v>
+        <v>1392</v>
       </c>
       <c r="Y101">
-        <v>1312</v>
+        <v>464</v>
       </c>
       <c r="Z101">
-        <v>2291</v>
+        <v>863</v>
       </c>
       <c r="AA101">
         <v>100</v>
@@ -14657,27 +14651,27 @@
         <v>0</v>
       </c>
       <c r="AF101" t="s">
-        <v>279</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>467</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>1254</v>
+        <v>1263</v>
       </c>
       <c r="C102" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="E102" t="s">
         <v>354</v>
       </c>
       <c r="F102">
-        <v>1394</v>
+        <v>645</v>
       </c>
       <c r="G102">
         <v>27</v>
@@ -14707,16 +14701,16 @@
         <v>358</v>
       </c>
       <c r="P102" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="Q102" t="s">
         <v>49</v>
       </c>
       <c r="R102">
-        <v>23584</v>
+        <v>13088</v>
       </c>
       <c r="S102">
-        <v>24977</v>
+        <v>13732</v>
       </c>
       <c r="T102" t="s">
         <v>41</v>
@@ -14725,28 +14719,28 @@
         <v>1</v>
       </c>
       <c r="V102">
-        <v>464</v>
+        <v>201</v>
       </c>
       <c r="W102">
         <v>1</v>
       </c>
       <c r="X102">
-        <v>1392</v>
+        <v>603</v>
       </c>
       <c r="Y102">
-        <v>464</v>
+        <v>201</v>
       </c>
       <c r="Z102">
-        <v>863</v>
+        <v>413</v>
       </c>
       <c r="AA102">
         <v>100</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AC102">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="AD102">
         <v>0</v>
@@ -14755,66 +14749,66 @@
         <v>0</v>
       </c>
       <c r="AF102" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>326</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="C103" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="E103" t="s">
-        <v>354</v>
+        <v>152</v>
       </c>
       <c r="F103">
-        <v>645</v>
+        <v>1192</v>
       </c>
       <c r="G103">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H103" t="s">
         <v>31</v>
       </c>
       <c r="I103" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J103" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="K103" t="s">
-        <v>355</v>
+        <v>154</v>
       </c>
       <c r="L103" t="s">
-        <v>356</v>
+        <v>155</v>
       </c>
       <c r="M103" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N103" t="s">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="O103" t="s">
-        <v>358</v>
+        <v>525</v>
       </c>
       <c r="P103" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="Q103" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R103">
-        <v>13088</v>
+        <v>1912708</v>
       </c>
       <c r="S103">
-        <v>13732</v>
+        <v>1913899</v>
       </c>
       <c r="T103" t="s">
         <v>41</v>
@@ -14823,28 +14817,28 @@
         <v>1</v>
       </c>
       <c r="V103">
-        <v>201</v>
+        <v>397</v>
       </c>
       <c r="W103">
         <v>1</v>
       </c>
       <c r="X103">
-        <v>603</v>
+        <v>1191</v>
       </c>
       <c r="Y103">
-        <v>201</v>
+        <v>397</v>
       </c>
       <c r="Z103">
-        <v>413</v>
+        <v>730</v>
       </c>
       <c r="AA103">
         <v>100</v>
       </c>
       <c r="AB103">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="AD103">
         <v>0</v>
@@ -14853,27 +14847,27 @@
         <v>0</v>
       </c>
       <c r="AF103" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>527</v>
+        <v>303</v>
       </c>
       <c r="B104" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C104" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1037</v>
+        <v>1009</v>
       </c>
       <c r="E104" t="s">
         <v>152</v>
       </c>
       <c r="F104">
-        <v>1192</v>
+        <v>321</v>
       </c>
       <c r="G104">
         <v>45</v>
@@ -14900,19 +14894,19 @@
         <v>156</v>
       </c>
       <c r="O104" t="s">
-        <v>525</v>
+        <v>301</v>
       </c>
       <c r="P104" t="s">
-        <v>526</v>
+        <v>302</v>
       </c>
       <c r="Q104" t="s">
         <v>40</v>
       </c>
       <c r="R104">
-        <v>1912708</v>
+        <v>471422</v>
       </c>
       <c r="S104">
-        <v>1913899</v>
+        <v>471742</v>
       </c>
       <c r="T104" t="s">
         <v>41</v>
@@ -14921,28 +14915,28 @@
         <v>1</v>
       </c>
       <c r="V104">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="W104">
         <v>1</v>
       </c>
       <c r="X104">
-        <v>1191</v>
+        <v>321</v>
       </c>
       <c r="Y104">
-        <v>397</v>
+        <v>107</v>
       </c>
       <c r="Z104">
-        <v>730</v>
+        <v>215</v>
       </c>
       <c r="AA104">
         <v>100</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AC104">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="AD104">
         <v>0</v>
@@ -14951,27 +14945,27 @@
         <v>0</v>
       </c>
       <c r="AF104" t="s">
-        <v>528</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C105" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="E105" t="s">
         <v>152</v>
       </c>
       <c r="F105">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="G105">
         <v>45</v>
@@ -14998,19 +14992,19 @@
         <v>156</v>
       </c>
       <c r="O105" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="P105" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="Q105" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R105">
-        <v>471422</v>
+        <v>121527</v>
       </c>
       <c r="S105">
-        <v>471742</v>
+        <v>121994</v>
       </c>
       <c r="T105" t="s">
         <v>41</v>
@@ -15019,28 +15013,28 @@
         <v>1</v>
       </c>
       <c r="V105">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="W105">
         <v>1</v>
       </c>
       <c r="X105">
-        <v>321</v>
+        <v>468</v>
       </c>
       <c r="Y105">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="Z105">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="AA105">
         <v>100</v>
       </c>
       <c r="AB105">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="AC105">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AD105">
         <v>0</v>
@@ -15049,66 +15043,66 @@
         <v>0</v>
       </c>
       <c r="AF105" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>444</v>
       </c>
       <c r="B106" t="s">
-        <v>1253</v>
+        <v>1220</v>
       </c>
       <c r="C106" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="F106">
-        <v>468</v>
+        <v>3866</v>
       </c>
       <c r="G106">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H106" t="s">
         <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J106" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="K106" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="L106" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="M106" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N106" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="O106" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>479</v>
       </c>
       <c r="Q106" t="s">
         <v>49</v>
       </c>
       <c r="R106">
-        <v>121527</v>
+        <v>8060</v>
       </c>
       <c r="S106">
-        <v>121994</v>
+        <v>11925</v>
       </c>
       <c r="T106" t="s">
         <v>41</v>
@@ -15117,28 +15111,28 @@
         <v>1</v>
       </c>
       <c r="V106">
-        <v>156</v>
+        <v>1288</v>
       </c>
       <c r="W106">
         <v>1</v>
       </c>
       <c r="X106">
-        <v>468</v>
+        <v>3864</v>
       </c>
       <c r="Y106">
-        <v>156</v>
+        <v>1288</v>
       </c>
       <c r="Z106">
-        <v>249</v>
+        <v>2362</v>
       </c>
       <c r="AA106">
         <v>100</v>
       </c>
       <c r="AB106">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="AD106">
         <v>0</v>
@@ -15147,66 +15141,66 @@
         <v>0</v>
       </c>
       <c r="AF106" t="s">
-        <v>212</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>444</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C107" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="E107" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="F107">
-        <v>3866</v>
+        <v>2241</v>
       </c>
       <c r="G107">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="H107" t="s">
         <v>31</v>
       </c>
       <c r="I107" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J107" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="K107" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="L107" t="s">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="M107" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N107" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="O107" t="s">
-        <v>184</v>
+        <v>268</v>
       </c>
       <c r="P107" t="s">
-        <v>479</v>
+        <v>269</v>
       </c>
       <c r="Q107" t="s">
         <v>49</v>
       </c>
       <c r="R107">
-        <v>8060</v>
+        <v>113562645</v>
       </c>
       <c r="S107">
-        <v>11925</v>
+        <v>113564885</v>
       </c>
       <c r="T107" t="s">
         <v>41</v>
@@ -15215,19 +15209,19 @@
         <v>1</v>
       </c>
       <c r="V107">
-        <v>1288</v>
+        <v>747</v>
       </c>
       <c r="W107">
         <v>1</v>
       </c>
       <c r="X107">
-        <v>3864</v>
+        <v>2241</v>
       </c>
       <c r="Y107">
-        <v>1288</v>
+        <v>747</v>
       </c>
       <c r="Z107">
-        <v>2362</v>
+        <v>1228</v>
       </c>
       <c r="AA107">
         <v>100</v>
@@ -15245,66 +15239,66 @@
         <v>0</v>
       </c>
       <c r="AF107" t="s">
-        <v>480</v>
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>281</v>
+        <v>698</v>
       </c>
       <c r="B108" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C108" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1008</v>
+        <v>1055</v>
       </c>
       <c r="E108" t="s">
-        <v>62</v>
+        <v>671</v>
       </c>
       <c r="F108">
-        <v>2241</v>
+        <v>2448</v>
       </c>
       <c r="G108">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H108" t="s">
         <v>31</v>
       </c>
       <c r="I108" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="J108" t="s">
-        <v>64</v>
+        <v>672</v>
       </c>
       <c r="K108" t="s">
-        <v>65</v>
+        <v>673</v>
       </c>
       <c r="L108" t="s">
-        <v>66</v>
+        <v>674</v>
       </c>
       <c r="M108" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N108" t="s">
-        <v>67</v>
+        <v>675</v>
       </c>
       <c r="O108" t="s">
-        <v>268</v>
+        <v>676</v>
       </c>
       <c r="P108" t="s">
-        <v>269</v>
+        <v>697</v>
       </c>
       <c r="Q108" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R108">
-        <v>113562645</v>
+        <v>915945</v>
       </c>
       <c r="S108">
-        <v>113564885</v>
+        <v>918392</v>
       </c>
       <c r="T108" t="s">
         <v>41</v>
@@ -15313,19 +15307,19 @@
         <v>1</v>
       </c>
       <c r="V108">
-        <v>747</v>
+        <v>816</v>
       </c>
       <c r="W108">
         <v>1</v>
       </c>
       <c r="X108">
-        <v>2241</v>
+        <v>2448</v>
       </c>
       <c r="Y108">
-        <v>747</v>
+        <v>816</v>
       </c>
       <c r="Z108">
-        <v>1228</v>
+        <v>1484</v>
       </c>
       <c r="AA108">
         <v>100</v>
@@ -15343,27 +15337,27 @@
         <v>0</v>
       </c>
       <c r="AF108" t="s">
-        <v>282</v>
+        <v>699</v>
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="B109" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="C109" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E109" t="s">
         <v>671</v>
       </c>
       <c r="F109">
-        <v>2448</v>
+        <v>3733</v>
       </c>
       <c r="G109">
         <v>54</v>
@@ -15393,16 +15387,16 @@
         <v>676</v>
       </c>
       <c r="P109" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="Q109" t="s">
         <v>40</v>
       </c>
       <c r="R109">
-        <v>915945</v>
+        <v>9405476</v>
       </c>
       <c r="S109">
-        <v>918392</v>
+        <v>9409208</v>
       </c>
       <c r="T109" t="s">
         <v>41</v>
@@ -15411,19 +15405,19 @@
         <v>1</v>
       </c>
       <c r="V109">
-        <v>816</v>
+        <v>1244</v>
       </c>
       <c r="W109">
         <v>1</v>
       </c>
       <c r="X109">
-        <v>2448</v>
+        <v>3732</v>
       </c>
       <c r="Y109">
-        <v>816</v>
+        <v>1244</v>
       </c>
       <c r="Z109">
-        <v>1484</v>
+        <v>2319</v>
       </c>
       <c r="AA109">
         <v>100</v>
@@ -15441,30 +15435,30 @@
         <v>0</v>
       </c>
       <c r="AF109" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>678</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C110" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="E110" t="s">
-        <v>671</v>
+        <v>105</v>
       </c>
       <c r="F110">
-        <v>3733</v>
+        <v>2248</v>
       </c>
       <c r="G110">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H110" t="s">
         <v>31</v>
@@ -15473,34 +15467,34 @@
         <v>106</v>
       </c>
       <c r="J110" t="s">
-        <v>672</v>
+        <v>63</v>
       </c>
       <c r="K110" t="s">
-        <v>673</v>
+        <v>107</v>
       </c>
       <c r="L110" t="s">
-        <v>674</v>
+        <v>108</v>
       </c>
       <c r="M110" t="s">
         <v>36</v>
       </c>
       <c r="N110" t="s">
-        <v>675</v>
+        <v>109</v>
       </c>
       <c r="O110" t="s">
-        <v>676</v>
+        <v>110</v>
       </c>
       <c r="P110" t="s">
-        <v>677</v>
+        <v>111</v>
       </c>
       <c r="Q110" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R110">
-        <v>9405476</v>
+        <v>34329499</v>
       </c>
       <c r="S110">
-        <v>9409208</v>
+        <v>34331746</v>
       </c>
       <c r="T110" t="s">
         <v>41</v>
@@ -15509,19 +15503,19 @@
         <v>1</v>
       </c>
       <c r="V110">
-        <v>1244</v>
+        <v>749</v>
       </c>
       <c r="W110">
         <v>1</v>
       </c>
       <c r="X110">
-        <v>3732</v>
+        <v>2247</v>
       </c>
       <c r="Y110">
-        <v>1244</v>
+        <v>749</v>
       </c>
       <c r="Z110">
-        <v>2319</v>
+        <v>1280</v>
       </c>
       <c r="AA110">
         <v>100</v>
@@ -15539,27 +15533,27 @@
         <v>0</v>
       </c>
       <c r="AF110" t="s">
-        <v>679</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C111" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="E111" t="s">
         <v>105</v>
       </c>
       <c r="F111">
-        <v>2248</v>
+        <v>144</v>
       </c>
       <c r="G111">
         <v>55</v>
@@ -15589,16 +15583,16 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="Q111" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R111">
-        <v>34329499</v>
+        <v>3606438</v>
       </c>
       <c r="S111">
-        <v>34331746</v>
+        <v>3606581</v>
       </c>
       <c r="T111" t="s">
         <v>41</v>
@@ -15607,28 +15601,28 @@
         <v>1</v>
       </c>
       <c r="V111">
-        <v>749</v>
+        <v>48</v>
       </c>
       <c r="W111">
         <v>1</v>
       </c>
       <c r="X111">
-        <v>2247</v>
+        <v>144</v>
       </c>
       <c r="Y111">
-        <v>749</v>
+        <v>48</v>
       </c>
       <c r="Z111">
-        <v>1280</v>
+        <v>98.2</v>
       </c>
       <c r="AA111">
         <v>100</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AC111">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AD111">
         <v>0</v>
@@ -15637,66 +15631,66 @@
         <v>0</v>
       </c>
       <c r="AF111" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>131</v>
+        <v>923</v>
       </c>
       <c r="B112" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C112" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>996</v>
+        <v>1076</v>
       </c>
       <c r="E112" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F112">
-        <v>144</v>
+        <v>495</v>
       </c>
       <c r="G112">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H112" t="s">
         <v>31</v>
       </c>
       <c r="I112" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="J112" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="K112" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="L112" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="M112" t="s">
         <v>36</v>
       </c>
       <c r="N112" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O112" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="P112" t="s">
-        <v>130</v>
+        <v>922</v>
       </c>
       <c r="Q112" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R112">
-        <v>3606438</v>
+        <v>188701</v>
       </c>
       <c r="S112">
-        <v>3606581</v>
+        <v>189195</v>
       </c>
       <c r="T112" t="s">
         <v>41</v>
@@ -15705,28 +15699,28 @@
         <v>1</v>
       </c>
       <c r="V112">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="W112">
         <v>1</v>
       </c>
       <c r="X112">
-        <v>144</v>
+        <v>495</v>
       </c>
       <c r="Y112">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="Z112">
-        <v>98.2</v>
+        <v>338</v>
       </c>
       <c r="AA112">
         <v>100</v>
       </c>
       <c r="AB112">
-        <v>1.3</v>
+        <v>2.52</v>
       </c>
       <c r="AC112">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="AD112">
         <v>0</v>
@@ -15735,27 +15729,27 @@
         <v>0</v>
       </c>
       <c r="AF112" t="s">
-        <v>128</v>
+        <v>924</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>923</v>
+        <v>559</v>
       </c>
       <c r="B113" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="C113" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1076</v>
+        <v>1040</v>
       </c>
       <c r="E113" t="s">
         <v>121</v>
       </c>
       <c r="F113">
-        <v>495</v>
+        <v>1478</v>
       </c>
       <c r="G113">
         <v>56</v>
@@ -15785,16 +15779,16 @@
         <v>125</v>
       </c>
       <c r="P113" t="s">
-        <v>922</v>
+        <v>558</v>
       </c>
       <c r="Q113" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R113">
-        <v>188701</v>
+        <v>648708</v>
       </c>
       <c r="S113">
-        <v>189195</v>
+        <v>650185</v>
       </c>
       <c r="T113" t="s">
         <v>41</v>
@@ -15803,28 +15797,28 @@
         <v>1</v>
       </c>
       <c r="V113">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="W113">
         <v>1</v>
       </c>
       <c r="X113">
-        <v>495</v>
+        <v>1476</v>
       </c>
       <c r="Y113">
-        <v>165</v>
+        <v>492</v>
       </c>
       <c r="Z113">
-        <v>338</v>
+        <v>916</v>
       </c>
       <c r="AA113">
         <v>100</v>
       </c>
       <c r="AB113">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="AD113">
         <v>0</v>
@@ -15833,27 +15827,27 @@
         <v>0</v>
       </c>
       <c r="AF113" t="s">
-        <v>924</v>
+        <v>560</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>559</v>
+        <v>890</v>
       </c>
       <c r="B114" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C114" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1040</v>
+        <v>1071</v>
       </c>
       <c r="E114" t="s">
         <v>121</v>
       </c>
       <c r="F114">
-        <v>1478</v>
+        <v>1230</v>
       </c>
       <c r="G114">
         <v>56</v>
@@ -15883,16 +15877,16 @@
         <v>125</v>
       </c>
       <c r="P114" t="s">
-        <v>558</v>
+        <v>889</v>
       </c>
       <c r="Q114" t="s">
         <v>40</v>
       </c>
       <c r="R114">
-        <v>648708</v>
+        <v>82850</v>
       </c>
       <c r="S114">
-        <v>650185</v>
+        <v>84079</v>
       </c>
       <c r="T114" t="s">
         <v>41</v>
@@ -15901,19 +15895,19 @@
         <v>1</v>
       </c>
       <c r="V114">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="W114">
         <v>1</v>
       </c>
       <c r="X114">
-        <v>1476</v>
+        <v>1230</v>
       </c>
       <c r="Y114">
-        <v>492</v>
+        <v>410</v>
       </c>
       <c r="Z114">
-        <v>916</v>
+        <v>800</v>
       </c>
       <c r="AA114">
         <v>100</v>
@@ -15931,27 +15925,27 @@
         <v>0</v>
       </c>
       <c r="AF114" t="s">
-        <v>560</v>
+        <v>891</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>890</v>
+        <v>239</v>
       </c>
       <c r="B115" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="C115" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1071</v>
+        <v>1005</v>
       </c>
       <c r="E115" t="s">
         <v>121</v>
       </c>
       <c r="F115">
-        <v>1230</v>
+        <v>639</v>
       </c>
       <c r="G115">
         <v>56</v>
@@ -15981,16 +15975,16 @@
         <v>125</v>
       </c>
       <c r="P115" t="s">
-        <v>889</v>
+        <v>238</v>
       </c>
       <c r="Q115" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R115">
-        <v>82850</v>
+        <v>200792</v>
       </c>
       <c r="S115">
-        <v>84079</v>
+        <v>201430</v>
       </c>
       <c r="T115" t="s">
         <v>41</v>
@@ -15999,28 +15993,28 @@
         <v>1</v>
       </c>
       <c r="V115">
-        <v>410</v>
+        <v>213</v>
       </c>
       <c r="W115">
         <v>1</v>
       </c>
       <c r="X115">
-        <v>1230</v>
+        <v>639</v>
       </c>
       <c r="Y115">
-        <v>410</v>
+        <v>213</v>
       </c>
       <c r="Z115">
-        <v>800</v>
+        <v>405</v>
       </c>
       <c r="AA115">
         <v>100</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="AC115">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="AD115">
         <v>0</v>
@@ -16029,27 +16023,27 @@
         <v>0</v>
       </c>
       <c r="AF115" t="s">
-        <v>891</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="C116" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="E116" t="s">
         <v>121</v>
       </c>
       <c r="F116">
-        <v>639</v>
+        <v>453</v>
       </c>
       <c r="G116">
         <v>56</v>
@@ -16079,16 +16073,16 @@
         <v>125</v>
       </c>
       <c r="P116" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="Q116" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R116">
-        <v>200792</v>
+        <v>499005</v>
       </c>
       <c r="S116">
-        <v>201430</v>
+        <v>499457</v>
       </c>
       <c r="T116" t="s">
         <v>41</v>
@@ -16097,28 +16091,28 @@
         <v>1</v>
       </c>
       <c r="V116">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="W116">
         <v>1</v>
       </c>
       <c r="X116">
-        <v>639</v>
+        <v>453</v>
       </c>
       <c r="Y116">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="Z116">
-        <v>405</v>
+        <v>301</v>
       </c>
       <c r="AA116">
         <v>100</v>
       </c>
       <c r="AB116">
-        <v>5.54</v>
+        <v>6.99</v>
       </c>
       <c r="AC116">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="AD116">
         <v>0</v>
@@ -16127,66 +16121,66 @@
         <v>0</v>
       </c>
       <c r="AF116" t="s">
-        <v>212</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>747</v>
       </c>
       <c r="B117" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="C117" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>995</v>
+        <v>1057</v>
       </c>
       <c r="E117" t="s">
-        <v>121</v>
+        <v>366</v>
       </c>
       <c r="F117">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="G117">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H117" t="s">
         <v>31</v>
       </c>
       <c r="I117" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="J117" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K117" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="L117" t="s">
-        <v>123</v>
+        <v>367</v>
       </c>
       <c r="M117" t="s">
         <v>36</v>
       </c>
       <c r="N117" t="s">
-        <v>124</v>
+        <v>368</v>
       </c>
       <c r="O117" t="s">
-        <v>125</v>
+        <v>745</v>
       </c>
       <c r="P117" t="s">
-        <v>126</v>
+        <v>746</v>
       </c>
       <c r="Q117" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R117">
-        <v>499005</v>
+        <v>12296693</v>
       </c>
       <c r="S117">
-        <v>499457</v>
+        <v>12296968</v>
       </c>
       <c r="T117" t="s">
         <v>41</v>
@@ -16195,28 +16189,28 @@
         <v>1</v>
       </c>
       <c r="V117">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="W117">
         <v>1</v>
       </c>
       <c r="X117">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="Y117">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="Z117">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="AA117">
         <v>100</v>
       </c>
       <c r="AB117">
-        <v>6.99</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="AC117">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="AD117">
         <v>0</v>
@@ -16225,66 +16219,66 @@
         <v>0</v>
       </c>
       <c r="AF117" t="s">
-        <v>128</v>
+        <v>737</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>747</v>
+        <v>875</v>
       </c>
       <c r="B118" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="C118" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="E118" t="s">
-        <v>366</v>
+        <v>260</v>
       </c>
       <c r="F118">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="G118">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H118" t="s">
         <v>31</v>
       </c>
       <c r="I118" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="J118" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="K118" t="s">
-        <v>172</v>
+        <v>261</v>
       </c>
       <c r="L118" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="M118" t="s">
         <v>36</v>
       </c>
       <c r="N118" t="s">
-        <v>368</v>
+        <v>263</v>
       </c>
       <c r="O118" t="s">
-        <v>745</v>
+        <v>264</v>
       </c>
       <c r="P118" t="s">
-        <v>746</v>
+        <v>874</v>
       </c>
       <c r="Q118" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R118">
-        <v>12296693</v>
+        <v>39131</v>
       </c>
       <c r="S118">
-        <v>12296968</v>
+        <v>39517</v>
       </c>
       <c r="T118" t="s">
         <v>41</v>
@@ -16293,28 +16287,28 @@
         <v>1</v>
       </c>
       <c r="V118">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="W118">
         <v>1</v>
       </c>
       <c r="X118">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="Y118">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="Z118">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="AA118">
         <v>100</v>
       </c>
       <c r="AB118">
-        <v>4.4400000000000004</v>
+        <v>4.46</v>
       </c>
       <c r="AC118">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="AD118">
         <v>0</v>
@@ -16323,27 +16317,27 @@
         <v>0</v>
       </c>
       <c r="AF118" t="s">
-        <v>737</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>875</v>
+        <v>400</v>
       </c>
       <c r="B119" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C119" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1067</v>
+        <v>1020</v>
       </c>
       <c r="E119" t="s">
         <v>260</v>
       </c>
       <c r="F119">
-        <v>387</v>
+        <v>3166</v>
       </c>
       <c r="G119">
         <v>62</v>
@@ -16373,16 +16367,16 @@
         <v>264</v>
       </c>
       <c r="P119" t="s">
-        <v>874</v>
+        <v>544</v>
       </c>
       <c r="Q119" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R119">
-        <v>39131</v>
+        <v>11645</v>
       </c>
       <c r="S119">
-        <v>39517</v>
+        <v>14810</v>
       </c>
       <c r="T119" t="s">
         <v>41</v>
@@ -16391,28 +16385,28 @@
         <v>1</v>
       </c>
       <c r="V119">
-        <v>129</v>
+        <v>606</v>
       </c>
       <c r="W119">
         <v>1</v>
       </c>
       <c r="X119">
-        <v>387</v>
+        <v>1818</v>
       </c>
       <c r="Y119">
-        <v>129</v>
+        <v>606</v>
       </c>
       <c r="Z119">
-        <v>267</v>
+        <v>1164</v>
       </c>
       <c r="AA119">
         <v>100</v>
       </c>
       <c r="AB119">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="AC119">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="AD119">
         <v>0</v>
@@ -16421,27 +16415,27 @@
         <v>0</v>
       </c>
       <c r="AF119" t="s">
-        <v>876</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>400</v>
+        <v>548</v>
       </c>
       <c r="B120" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C120" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="E120" t="s">
         <v>260</v>
       </c>
       <c r="F120">
-        <v>3166</v>
+        <v>3241</v>
       </c>
       <c r="G120">
         <v>62</v>
@@ -16471,37 +16465,37 @@
         <v>264</v>
       </c>
       <c r="P120" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q120" t="s">
         <v>49</v>
       </c>
       <c r="R120">
-        <v>11645</v>
+        <v>11420</v>
       </c>
       <c r="S120">
-        <v>14810</v>
+        <v>14660</v>
       </c>
       <c r="T120" t="s">
         <v>41</v>
       </c>
       <c r="U120">
-        <v>1</v>
+        <v>358</v>
       </c>
       <c r="V120">
-        <v>606</v>
+        <v>838</v>
       </c>
       <c r="W120">
-        <v>1</v>
+        <v>1799</v>
       </c>
       <c r="X120">
-        <v>1818</v>
+        <v>3241</v>
       </c>
       <c r="Y120">
-        <v>606</v>
+        <v>481</v>
       </c>
       <c r="Z120">
-        <v>1164</v>
+        <v>867</v>
       </c>
       <c r="AA120">
         <v>100</v>
@@ -16519,27 +16513,27 @@
         <v>0</v>
       </c>
       <c r="AF120" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="B121" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C121" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E121" t="s">
         <v>260</v>
       </c>
       <c r="F121">
-        <v>3241</v>
+        <v>1380</v>
       </c>
       <c r="G121">
         <v>62</v>
@@ -16569,37 +16563,37 @@
         <v>264</v>
       </c>
       <c r="P121" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="Q121" t="s">
         <v>49</v>
       </c>
       <c r="R121">
-        <v>11420</v>
+        <v>44111</v>
       </c>
       <c r="S121">
-        <v>14660</v>
+        <v>45490</v>
       </c>
       <c r="T121" t="s">
         <v>41</v>
       </c>
       <c r="U121">
-        <v>358</v>
+        <v>1</v>
       </c>
       <c r="V121">
-        <v>838</v>
+        <v>460</v>
       </c>
       <c r="W121">
-        <v>1799</v>
+        <v>1</v>
       </c>
       <c r="X121">
-        <v>3241</v>
+        <v>1380</v>
       </c>
       <c r="Y121">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="Z121">
-        <v>867</v>
+        <v>894</v>
       </c>
       <c r="AA121">
         <v>100</v>
@@ -16617,27 +16611,27 @@
         <v>0</v>
       </c>
       <c r="AF121" t="s">
-        <v>549</v>
+        <v>513</v>
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B122" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C122" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E122" t="s">
         <v>260</v>
       </c>
       <c r="F122">
-        <v>1380</v>
+        <v>1709</v>
       </c>
       <c r="G122">
         <v>62</v>
@@ -16667,16 +16661,16 @@
         <v>264</v>
       </c>
       <c r="P122" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="Q122" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R122">
-        <v>44111</v>
+        <v>21741</v>
       </c>
       <c r="S122">
-        <v>45490</v>
+        <v>23449</v>
       </c>
       <c r="T122" t="s">
         <v>41</v>
@@ -16685,19 +16679,19 @@
         <v>1</v>
       </c>
       <c r="V122">
-        <v>460</v>
+        <v>569</v>
       </c>
       <c r="W122">
         <v>1</v>
       </c>
       <c r="X122">
-        <v>1380</v>
+        <v>1707</v>
       </c>
       <c r="Y122">
-        <v>460</v>
+        <v>569</v>
       </c>
       <c r="Z122">
-        <v>894</v>
+        <v>1043</v>
       </c>
       <c r="AA122">
         <v>100</v>
@@ -16715,27 +16709,27 @@
         <v>0</v>
       </c>
       <c r="AF122" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>505</v>
+        <v>318</v>
       </c>
       <c r="B123" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C123" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1032</v>
+        <v>1010</v>
       </c>
       <c r="E123" t="s">
         <v>260</v>
       </c>
       <c r="F123">
-        <v>1709</v>
+        <v>450</v>
       </c>
       <c r="G123">
         <v>62</v>
@@ -16765,16 +16759,16 @@
         <v>264</v>
       </c>
       <c r="P123" t="s">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="Q123" t="s">
         <v>40</v>
       </c>
       <c r="R123">
-        <v>21741</v>
+        <v>9161</v>
       </c>
       <c r="S123">
-        <v>23449</v>
+        <v>9610</v>
       </c>
       <c r="T123" t="s">
         <v>41</v>
@@ -16783,28 +16777,28 @@
         <v>1</v>
       </c>
       <c r="V123">
-        <v>569</v>
+        <v>150</v>
       </c>
       <c r="W123">
         <v>1</v>
       </c>
       <c r="X123">
-        <v>1707</v>
+        <v>450</v>
       </c>
       <c r="Y123">
-        <v>569</v>
+        <v>150</v>
       </c>
       <c r="Z123">
-        <v>1043</v>
+        <v>293</v>
       </c>
       <c r="AA123">
         <v>100</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="AD123">
         <v>0</v>
@@ -16813,27 +16807,27 @@
         <v>0</v>
       </c>
       <c r="AF123" t="s">
-        <v>492</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C124" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="E124" t="s">
         <v>260</v>
       </c>
       <c r="F124">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="G124">
         <v>62</v>
@@ -16863,16 +16857,16 @@
         <v>264</v>
       </c>
       <c r="P124" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="Q124" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="R124">
-        <v>9161</v>
+        <v>10875</v>
       </c>
       <c r="S124">
-        <v>9610</v>
+        <v>11333</v>
       </c>
       <c r="T124" t="s">
         <v>41</v>
@@ -16881,28 +16875,28 @@
         <v>1</v>
       </c>
       <c r="V124">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="W124">
         <v>1</v>
       </c>
       <c r="X124">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Y124">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Z124">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="AA124">
         <v>100</v>
       </c>
       <c r="AB124">
-        <v>6.11</v>
+        <v>2.96</v>
       </c>
       <c r="AC124">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AD124">
         <v>0</v>
@@ -16911,27 +16905,27 @@
         <v>0</v>
       </c>
       <c r="AF124" t="s">
-        <v>290</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>266</v>
+        <v>919</v>
       </c>
       <c r="B125" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="C125" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1006</v>
+        <v>1075</v>
       </c>
       <c r="E125" t="s">
         <v>260</v>
       </c>
       <c r="F125">
-        <v>459</v>
+        <v>1055</v>
       </c>
       <c r="G125">
         <v>62</v>
@@ -16961,16 +16955,16 @@
         <v>264</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>918</v>
       </c>
       <c r="Q125" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R125">
-        <v>10875</v>
+        <v>5021</v>
       </c>
       <c r="S125">
-        <v>11333</v>
+        <v>6075</v>
       </c>
       <c r="T125" t="s">
         <v>41</v>
@@ -16979,28 +16973,28 @@
         <v>1</v>
       </c>
       <c r="V125">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="W125">
         <v>1</v>
       </c>
       <c r="X125">
-        <v>459</v>
+        <v>1053</v>
       </c>
       <c r="Y125">
-        <v>153</v>
+        <v>351</v>
       </c>
       <c r="Z125">
-        <v>315</v>
+        <v>680</v>
       </c>
       <c r="AA125">
         <v>100</v>
       </c>
       <c r="AB125">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="AD125">
         <v>0</v>
@@ -17009,30 +17003,30 @@
         <v>0</v>
       </c>
       <c r="AF125" t="s">
-        <v>212</v>
+        <v>920</v>
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>919</v>
+        <v>598</v>
       </c>
       <c r="B126" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C126" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1075</v>
+        <v>1047</v>
       </c>
       <c r="E126" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="F126">
-        <v>1055</v>
+        <v>609</v>
       </c>
       <c r="G126">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H126" t="s">
         <v>31</v>
@@ -17044,31 +17038,31 @@
         <v>73</v>
       </c>
       <c r="K126" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
       <c r="L126" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="M126" t="s">
         <v>36</v>
       </c>
       <c r="N126" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="O126" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="P126" t="s">
-        <v>918</v>
+        <v>597</v>
       </c>
       <c r="Q126" t="s">
         <v>40</v>
       </c>
       <c r="R126">
-        <v>5021</v>
+        <v>8646482</v>
       </c>
       <c r="S126">
-        <v>6075</v>
+        <v>8647090</v>
       </c>
       <c r="T126" t="s">
         <v>41</v>
@@ -17077,28 +17071,28 @@
         <v>1</v>
       </c>
       <c r="V126">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="W126">
         <v>1</v>
       </c>
       <c r="X126">
-        <v>1053</v>
+        <v>609</v>
       </c>
       <c r="Y126">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="Z126">
-        <v>680</v>
+        <v>363</v>
       </c>
       <c r="AA126">
         <v>100</v>
       </c>
       <c r="AB126">
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="AD126">
         <v>0</v>
@@ -17107,27 +17101,27 @@
         <v>0</v>
       </c>
       <c r="AF126" t="s">
-        <v>920</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>598</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C127" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>1047</v>
+        <v>997</v>
       </c>
       <c r="E127" t="s">
         <v>82</v>
       </c>
       <c r="F127">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="G127">
         <v>66</v>
@@ -17157,16 +17151,16 @@
         <v>86</v>
       </c>
       <c r="P127" t="s">
-        <v>597</v>
+        <v>133</v>
       </c>
       <c r="Q127" t="s">
         <v>40</v>
       </c>
       <c r="R127">
-        <v>8646482</v>
+        <v>5139367</v>
       </c>
       <c r="S127">
-        <v>8647090</v>
+        <v>5139687</v>
       </c>
       <c r="T127" t="s">
         <v>41</v>
@@ -17175,28 +17169,28 @@
         <v>1</v>
       </c>
       <c r="V127">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="W127">
         <v>1</v>
       </c>
       <c r="X127">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="Y127">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="Z127">
-        <v>363</v>
+        <v>213</v>
       </c>
       <c r="AA127">
         <v>100</v>
       </c>
       <c r="AB127">
-        <v>1.1399999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC127">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AD127">
         <v>0</v>
@@ -17205,66 +17199,66 @@
         <v>0</v>
       </c>
       <c r="AF127" t="s">
-        <v>599</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="B128" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C128" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>997</v>
+        <v>1056</v>
       </c>
       <c r="E128" t="s">
-        <v>82</v>
+        <v>701</v>
       </c>
       <c r="F128">
-        <v>321</v>
+        <v>2995</v>
       </c>
       <c r="G128">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H128" t="s">
         <v>31</v>
       </c>
       <c r="I128" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="J128" t="s">
-        <v>73</v>
+        <v>702</v>
       </c>
       <c r="K128" t="s">
-        <v>83</v>
+        <v>703</v>
       </c>
       <c r="L128" t="s">
-        <v>84</v>
+        <v>704</v>
       </c>
       <c r="M128" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="N128" t="s">
-        <v>85</v>
+        <v>705</v>
       </c>
       <c r="O128" t="s">
-        <v>86</v>
+        <v>706</v>
       </c>
       <c r="P128" t="s">
-        <v>133</v>
+        <v>707</v>
       </c>
       <c r="Q128" t="s">
         <v>40</v>
       </c>
       <c r="R128">
-        <v>5139367</v>
+        <v>3921196</v>
       </c>
       <c r="S128">
-        <v>5139687</v>
+        <v>3924190</v>
       </c>
       <c r="T128" t="s">
         <v>41</v>
@@ -17273,28 +17267,28 @@
         <v>1</v>
       </c>
       <c r="V128">
-        <v>107</v>
+        <v>998</v>
       </c>
       <c r="W128">
         <v>1</v>
       </c>
       <c r="X128">
-        <v>321</v>
+        <v>2994</v>
       </c>
       <c r="Y128">
-        <v>107</v>
+        <v>998</v>
       </c>
       <c r="Z128">
-        <v>213</v>
+        <v>1785</v>
       </c>
       <c r="AA128">
         <v>100</v>
       </c>
       <c r="AB128">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="AD128">
         <v>0</v>
@@ -17303,110 +17297,12 @@
         <v>0</v>
       </c>
       <c r="AF128" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>708</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C129" s="11">
-        <v>219</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E129" t="s">
-        <v>701</v>
-      </c>
-      <c r="F129">
-        <v>2995</v>
-      </c>
-      <c r="G129">
-        <v>78</v>
-      </c>
-      <c r="H129" t="s">
-        <v>31</v>
-      </c>
-      <c r="I129" t="s">
-        <v>106</v>
-      </c>
-      <c r="J129" t="s">
-        <v>702</v>
-      </c>
-      <c r="K129" t="s">
-        <v>703</v>
-      </c>
-      <c r="L129" t="s">
-        <v>704</v>
-      </c>
-      <c r="M129" t="s">
-        <v>54</v>
-      </c>
-      <c r="N129" t="s">
-        <v>705</v>
-      </c>
-      <c r="O129" t="s">
-        <v>706</v>
-      </c>
-      <c r="P129" t="s">
-        <v>707</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>40</v>
-      </c>
-      <c r="R129">
-        <v>3921196</v>
-      </c>
-      <c r="S129">
-        <v>3924190</v>
-      </c>
-      <c r="T129" t="s">
-        <v>41</v>
-      </c>
-      <c r="U129">
-        <v>1</v>
-      </c>
-      <c r="V129">
-        <v>998</v>
-      </c>
-      <c r="W129">
-        <v>1</v>
-      </c>
-      <c r="X129">
-        <v>2994</v>
-      </c>
-      <c r="Y129">
-        <v>998</v>
-      </c>
-      <c r="Z129">
-        <v>1785</v>
-      </c>
-      <c r="AA129">
-        <v>100</v>
-      </c>
-      <c r="AB129">
-        <v>0</v>
-      </c>
-      <c r="AC129">
-        <v>1</v>
-      </c>
-      <c r="AD129">
-        <v>0</v>
-      </c>
-      <c r="AE129">
-        <v>0</v>
-      </c>
-      <c r="AF129" t="s">
         <v>709</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AF129">
-    <sortCondition ref="C2:C129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:AF128">
+    <sortCondition ref="C2:C128"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28875,10 +28771,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30371,6 +30267,104 @@
       </c>
       <c r="AF15" t="s">
         <v>897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C16" s="11">
+        <v>160</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16">
+        <v>2766</v>
+      </c>
+      <c r="G16">
+        <v>56</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>124</v>
+      </c>
+      <c r="O16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" t="s">
+        <v>944</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16">
+        <v>394492</v>
+      </c>
+      <c r="S16">
+        <v>397257</v>
+      </c>
+      <c r="T16" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16">
+        <v>602</v>
+      </c>
+      <c r="V16">
+        <v>771</v>
+      </c>
+      <c r="W16">
+        <v>1542</v>
+      </c>
+      <c r="X16">
+        <v>2066</v>
+      </c>
+      <c r="Y16">
+        <v>176</v>
+      </c>
+      <c r="Z16">
+        <v>227</v>
+      </c>
+      <c r="AA16">
+        <v>75</v>
+      </c>
+      <c r="AB16">
+        <v>3.96</v>
+      </c>
+      <c r="AC16">
+        <v>151</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>945</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC1686-30C4-A243-B4E6-BD2BE73AB6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49C08A-7923-3A4E-9C4F-77D87200A735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="12360" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="1720" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -3726,9 +3726,6 @@
     <t>proto.209-MacEug</t>
   </si>
   <si>
-    <t>proto.210-MacEug</t>
-  </si>
-  <si>
     <t>proto.211-MacEug</t>
   </si>
   <si>
@@ -3817,6 +3814,9 @@
   </si>
   <si>
     <t>proto.193-CteSoc</t>
+  </si>
+  <si>
+    <t>proto.210-diprotodontia</t>
   </si>
 </sst>
 </file>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B99" sqref="A1:AF128"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B114" sqref="A1:AF128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,7 +4859,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>952</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>1127</v>
       </c>
       <c r="B31" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C31" s="11">
         <v>127</v>
@@ -9073,7 +9073,7 @@
         <v>1141</v>
       </c>
       <c r="B45" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C45" s="11">
         <v>139</v>
@@ -9171,7 +9171,7 @@
         <v>1142</v>
       </c>
       <c r="B46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C46" s="11">
         <v>140</v>
@@ -9661,7 +9661,7 @@
         <v>1147</v>
       </c>
       <c r="B51" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C51" s="11">
         <v>145</v>
@@ -9759,7 +9759,7 @@
         <v>1153</v>
       </c>
       <c r="B52" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C52" s="11">
         <v>150</v>
@@ -9857,7 +9857,7 @@
         <v>1154</v>
       </c>
       <c r="B53" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C53" s="11">
         <v>151</v>
@@ -9955,7 +9955,7 @@
         <v>1155</v>
       </c>
       <c r="B54" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C54" s="11">
         <v>151</v>
@@ -10249,7 +10249,7 @@
         <v>1158</v>
       </c>
       <c r="B57" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C57" s="11">
         <v>154</v>
@@ -10347,7 +10347,7 @@
         <v>1159</v>
       </c>
       <c r="B58" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C58" s="11">
         <v>155</v>
@@ -10445,7 +10445,7 @@
         <v>1161</v>
       </c>
       <c r="B59" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C59" s="11">
         <v>157</v>
@@ -10543,7 +10543,7 @@
         <v>1162</v>
       </c>
       <c r="B60" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C60" s="11">
         <v>158</v>
@@ -10837,7 +10837,7 @@
         <v>1166</v>
       </c>
       <c r="B63" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C63" s="11">
         <v>162</v>
@@ -11131,7 +11131,7 @@
         <v>1169</v>
       </c>
       <c r="B66" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C66" s="11">
         <v>165</v>
@@ -12209,7 +12209,7 @@
         <v>459</v>
       </c>
       <c r="B77" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C77" s="11">
         <v>177</v>
@@ -12307,7 +12307,7 @@
         <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C78" s="11">
         <v>178</v>
@@ -14561,7 +14561,7 @@
         <v>467</v>
       </c>
       <c r="B101" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C101" s="11">
         <v>192</v>
@@ -14659,7 +14659,7 @@
         <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C102" s="11">
         <v>193</v>
@@ -14757,7 +14757,7 @@
         <v>527</v>
       </c>
       <c r="B103" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C103" s="11">
         <v>194</v>
@@ -14855,7 +14855,7 @@
         <v>303</v>
       </c>
       <c r="B104" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C104" s="11">
         <v>195</v>
@@ -14953,7 +14953,7 @@
         <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C105" s="11">
         <v>196</v>
@@ -16325,7 +16325,7 @@
         <v>400</v>
       </c>
       <c r="B119" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="C119" s="11">
         <v>210</v>
@@ -16423,7 +16423,7 @@
         <v>548</v>
       </c>
       <c r="B120" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C120" s="11">
         <v>211</v>
@@ -16521,7 +16521,7 @@
         <v>512</v>
       </c>
       <c r="B121" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C121" s="11">
         <v>212</v>
@@ -16619,7 +16619,7 @@
         <v>505</v>
       </c>
       <c r="B122" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C122" s="11">
         <v>213</v>
@@ -16717,7 +16717,7 @@
         <v>318</v>
       </c>
       <c r="B123" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C123" s="11">
         <v>214</v>
@@ -16815,7 +16815,7 @@
         <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C124" s="11">
         <v>215</v>
@@ -16913,7 +16913,7 @@
         <v>919</v>
       </c>
       <c r="B125" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C125" s="11">
         <v>216</v>
@@ -17011,7 +17011,7 @@
         <v>598</v>
       </c>
       <c r="B126" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C126" s="11">
         <v>217</v>
@@ -17109,7 +17109,7 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C127" s="11">
         <v>218</v>
@@ -17207,7 +17207,7 @@
         <v>708</v>
       </c>
       <c r="B128" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C128" s="11">
         <v>219</v>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAC1686-30C4-A243-B4E6-BD2BE73AB6C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054708DB-9B7C-AD47-9F4A-964F49A597A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="12360" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="2160" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -3726,9 +3726,6 @@
     <t>proto.209-MacEug</t>
   </si>
   <si>
-    <t>proto.210-MacEug</t>
-  </si>
-  <si>
     <t>proto.211-MacEug</t>
   </si>
   <si>
@@ -3817,6 +3814,9 @@
   </si>
   <si>
     <t>proto.193-CteSoc</t>
+  </si>
+  <si>
+    <t>proto.210-diprotodontia</t>
   </si>
 </sst>
 </file>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B99" sqref="A1:AF128"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4859,7 +4859,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -4957,7 +4957,7 @@
         <v>952</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>1127</v>
       </c>
       <c r="B31" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C31" s="11">
         <v>127</v>
@@ -9073,7 +9073,7 @@
         <v>1141</v>
       </c>
       <c r="B45" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C45" s="11">
         <v>139</v>
@@ -9171,7 +9171,7 @@
         <v>1142</v>
       </c>
       <c r="B46" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C46" s="11">
         <v>140</v>
@@ -9661,7 +9661,7 @@
         <v>1147</v>
       </c>
       <c r="B51" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C51" s="11">
         <v>145</v>
@@ -9759,7 +9759,7 @@
         <v>1153</v>
       </c>
       <c r="B52" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C52" s="11">
         <v>150</v>
@@ -9857,7 +9857,7 @@
         <v>1154</v>
       </c>
       <c r="B53" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C53" s="11">
         <v>151</v>
@@ -9955,7 +9955,7 @@
         <v>1155</v>
       </c>
       <c r="B54" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C54" s="11">
         <v>151</v>
@@ -10249,7 +10249,7 @@
         <v>1158</v>
       </c>
       <c r="B57" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C57" s="11">
         <v>154</v>
@@ -10347,7 +10347,7 @@
         <v>1159</v>
       </c>
       <c r="B58" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C58" s="11">
         <v>155</v>
@@ -10445,7 +10445,7 @@
         <v>1161</v>
       </c>
       <c r="B59" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C59" s="11">
         <v>157</v>
@@ -10543,7 +10543,7 @@
         <v>1162</v>
       </c>
       <c r="B60" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C60" s="11">
         <v>158</v>
@@ -10837,7 +10837,7 @@
         <v>1166</v>
       </c>
       <c r="B63" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C63" s="11">
         <v>162</v>
@@ -11131,7 +11131,7 @@
         <v>1169</v>
       </c>
       <c r="B66" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C66" s="11">
         <v>165</v>
@@ -12209,7 +12209,7 @@
         <v>459</v>
       </c>
       <c r="B77" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C77" s="11">
         <v>177</v>
@@ -12307,7 +12307,7 @@
         <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C78" s="11">
         <v>178</v>
@@ -14561,7 +14561,7 @@
         <v>467</v>
       </c>
       <c r="B101" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C101" s="11">
         <v>192</v>
@@ -14659,7 +14659,7 @@
         <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C102" s="11">
         <v>193</v>
@@ -14757,7 +14757,7 @@
         <v>527</v>
       </c>
       <c r="B103" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C103" s="11">
         <v>194</v>
@@ -14855,7 +14855,7 @@
         <v>303</v>
       </c>
       <c r="B104" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C104" s="11">
         <v>195</v>
@@ -14953,7 +14953,7 @@
         <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C105" s="11">
         <v>196</v>
@@ -16325,7 +16325,7 @@
         <v>400</v>
       </c>
       <c r="B119" t="s">
-        <v>1233</v>
+        <v>1263</v>
       </c>
       <c r="C119" s="11">
         <v>210</v>
@@ -16423,7 +16423,7 @@
         <v>548</v>
       </c>
       <c r="B120" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C120" s="11">
         <v>211</v>
@@ -16521,7 +16521,7 @@
         <v>512</v>
       </c>
       <c r="B121" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C121" s="11">
         <v>212</v>
@@ -16619,7 +16619,7 @@
         <v>505</v>
       </c>
       <c r="B122" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C122" s="11">
         <v>213</v>
@@ -16717,7 +16717,7 @@
         <v>318</v>
       </c>
       <c r="B123" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C123" s="11">
         <v>214</v>
@@ -16815,7 +16815,7 @@
         <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C124" s="11">
         <v>215</v>
@@ -16913,7 +16913,7 @@
         <v>919</v>
       </c>
       <c r="B125" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C125" s="11">
         <v>216</v>
@@ -17011,7 +17011,7 @@
         <v>598</v>
       </c>
       <c r="B126" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C126" s="11">
         <v>217</v>
@@ -17109,7 +17109,7 @@
         <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C127" s="11">
         <v>218</v>
@@ -17207,7 +17207,7 @@
         <v>708</v>
       </c>
       <c r="B128" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C128" s="11">
         <v>219</v>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49C08A-7923-3A4E-9C4F-77D87200A735}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484BAE94-FDB4-224C-B23D-98DE1E619680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="1720" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="1720" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -4743,7 +4743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B114" sqref="A1:AF128"/>
     </sheetView>
   </sheetViews>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484BAE94-FDB4-224C-B23D-98DE1E619680}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A58E65-5B28-B24C-975E-0FF1B8EF9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="1720" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B114" sqref="A1:AF128"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A58E65-5B28-B24C-975E-0FF1B8EF9458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4983FD-3C5A-0F44-A8EF-EDD31E633645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4660" yWindow="1720" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129:XFD129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
